--- a/timetable_all_departments.xlsx
+++ b/timetable_all_departments.xlsx
@@ -65,8 +65,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0098FB98"/>
-        <bgColor rgb="0098FB98"/>
+        <fgColor rgb="005D5FEF"/>
+        <bgColor rgb="005D5FEF"/>
       </patternFill>
     </fill>
     <fill>
@@ -83,8 +83,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="005D5FEF"/>
-        <bgColor rgb="005D5FEF"/>
+        <fgColor rgb="0045B7D1"/>
+        <bgColor rgb="0045B7D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F72585"/>
+        <bgColor rgb="00F72585"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0098FB98"/>
+        <bgColor rgb="0098FB98"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF9F1C"/>
+        <bgColor rgb="00FF9F1C"/>
       </patternFill>
     </fill>
     <fill>
@@ -97,24 +115,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFA07A"/>
         <bgColor rgb="00FFA07A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF9F1C"/>
-        <bgColor rgb="00FF9F1C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F72585"/>
-        <bgColor rgb="00F72585"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0045B7D1"/>
-        <bgColor rgb="0045B7D1"/>
       </patternFill>
     </fill>
     <fill>
@@ -137,6 +137,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="003A0CA3"/>
+        <bgColor rgb="003A0CA3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="004CC9F0"/>
         <bgColor rgb="004CC9F0"/>
       </patternFill>
@@ -145,12 +151,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="004361EE"/>
         <bgColor rgb="004361EE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003A0CA3"/>
-        <bgColor rgb="003A0CA3"/>
       </patternFill>
     </fill>
     <fill>
@@ -228,11 +228,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="2"/>
@@ -269,31 +269,31 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -311,13 +311,13 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -721,7 +721,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>2025-04-23 15:31:22</t>
+          <t>2025-04-23 16:35:43</t>
         </is>
       </c>
       <c r="C2" s="1" t="n"/>
@@ -963,7 +963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1101,25 +1101,25 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="9" t="inlineStr"/>
-      <c r="C2" s="10" t="inlineStr">
-        <is>
-          <t>- TUT
-room no. :C201
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>- LEC
+room no. :C203
 Dr. Dibyajyothi Guha</t>
         </is>
       </c>
+      <c r="C2" s="6" t="n"/>
       <c r="D2" s="7" t="n"/>
       <c r="E2" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F2" s="10" t="inlineStr">
+      <c r="F2" s="9" t="inlineStr">
         <is>
           <t>- LEC
-room no. :C201
-Dr. Sibasankar Padhy</t>
+room no. :C202
+Dr. Rajesh N S</t>
         </is>
       </c>
       <c r="G2" s="6" t="n"/>
@@ -1134,28 +1134,28 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="K2" s="10" t="inlineStr">
+      <c r="K2" s="9" t="inlineStr">
         <is>
           <t>- LAB
-room no. :L206+L207
+room no. :L306+L307
 Dr. Prabhu Prasad</t>
         </is>
       </c>
       <c r="L2" s="6" t="n"/>
       <c r="M2" s="6" t="n"/>
       <c r="N2" s="7" t="n"/>
-      <c r="O2" s="31" t="inlineStr">
-        <is>
-          <t>B3 Courses
-B3-NEW
-B3-NEW: Dr. Abdul Wahid (L107)</t>
-        </is>
-      </c>
-      <c r="P2" s="6" t="n"/>
+      <c r="O2" s="10" t="inlineStr"/>
+      <c r="P2" s="31" t="inlineStr">
+        <is>
+          <t>B4 Courses
+B4-NEW
+B4-NEW: Dr. Sandesh P (L106)</t>
+        </is>
+      </c>
       <c r="Q2" s="6" t="n"/>
-      <c r="R2" s="7" t="n"/>
-      <c r="S2" s="9" t="inlineStr"/>
-      <c r="T2" s="9" t="inlineStr"/>
+      <c r="R2" s="6" t="n"/>
+      <c r="S2" s="7" t="n"/>
+      <c r="T2" s="10" t="inlineStr"/>
     </row>
     <row r="3" ht="40" customHeight="1">
       <c r="A3" t="inlineStr">
@@ -1163,69 +1163,81 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr"/>
-      <c r="C3" s="9" t="inlineStr"/>
-      <c r="D3" s="9" t="inlineStr"/>
+      <c r="B3" s="10" t="inlineStr"/>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>- TUT
+room no. :C104
+Dr. Dibyajyothi Guha</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="n"/>
       <c r="E3" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F3" s="10" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>- LEC
+room no. :C204
+Dr. Somen Bhattacharjee</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="7" t="n"/>
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="10" t="inlineStr"/>
+      <c r="L3" s="9" t="inlineStr">
+        <is>
+          <t>- TUT
+room no. :C104
+Dr. Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="M3" s="7" t="n"/>
+      <c r="N3" s="9" t="inlineStr">
+        <is>
+          <t>- LEC
+room no. :C202
+Dr.Jagadish D N</t>
+        </is>
+      </c>
+      <c r="O3" s="6" t="n"/>
+      <c r="P3" s="7" t="n"/>
+      <c r="Q3" s="31" t="inlineStr">
+        <is>
+          <t>B4 Courses
+B4-NEW
+B4-NEW: Dr. Shirshendu L (L108)</t>
+        </is>
+      </c>
+      <c r="R3" s="6" t="n"/>
+      <c r="S3" s="6" t="n"/>
+      <c r="T3" s="7" t="n"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="9" t="inlineStr">
         <is>
           <t>- LEC
 room no. :C203
 Dr. Rajesh N S</t>
         </is>
       </c>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="7" t="n"/>
-      <c r="I3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="9" t="inlineStr"/>
-      <c r="L3" s="9" t="inlineStr"/>
-      <c r="M3" s="10" t="inlineStr">
-        <is>
-          <t>- LEC
-room no. :C101
-Dr. Prabhu Prasad</t>
-        </is>
-      </c>
-      <c r="N3" s="6" t="n"/>
-      <c r="O3" s="7" t="n"/>
-      <c r="P3" s="32" t="inlineStr">
-        <is>
-          <t>B4 Courses
-B4-NEW
-B4-NEW: Dr. Sandesh P (L106)</t>
-        </is>
-      </c>
-      <c r="Q3" s="6" t="n"/>
-      <c r="R3" s="6" t="n"/>
-      <c r="S3" s="7" t="n"/>
-      <c r="T3" s="9" t="inlineStr"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>- LEC
-room no. :C104
-Dr. Dibyajyothi Guha</t>
-        </is>
-      </c>
       <c r="C4" s="6" t="n"/>
       <c r="D4" s="7" t="n"/>
       <c r="E4" s="8" t="inlineStr">
@@ -1233,129 +1245,123 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F4" s="10" t="inlineStr">
+      <c r="F4" s="9" t="inlineStr">
+        <is>
+          <t>- LEC
+room no. :C201
+Dr. Prabhu Prasad</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="7" t="n"/>
+      <c r="I4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="10" t="inlineStr"/>
+      <c r="L4" s="10" t="inlineStr"/>
+      <c r="M4" s="10" t="inlineStr"/>
+      <c r="N4" s="9" t="inlineStr">
+        <is>
+          <t>- LEC
+room no. :C204
+Dr. Prabhu Prasad</t>
+        </is>
+      </c>
+      <c r="O4" s="6" t="n"/>
+      <c r="P4" s="7" t="n"/>
+      <c r="Q4" s="32" t="inlineStr">
+        <is>
+          <t>B3 Courses
+B3-NEW
+B3-NEW: Dr. Abdul Wahid (L106)</t>
+        </is>
+      </c>
+      <c r="R4" s="6" t="n"/>
+      <c r="S4" s="6" t="n"/>
+      <c r="T4" s="7" t="n"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>- LEC
+room no. :C203
+Dr. Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>- TUT
+room no. :C201
+Dr. Somen Bhattacharjee</t>
+        </is>
+      </c>
+      <c r="G5" s="7" t="n"/>
+      <c r="H5" s="10" t="inlineStr"/>
+      <c r="I5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="32" t="inlineStr">
+        <is>
+          <t>B3 Courses
+B3-NEW
+B3-NEW: Dr Prakash Pawar (L206)</t>
+        </is>
+      </c>
+      <c r="L5" s="6" t="n"/>
+      <c r="M5" s="6" t="n"/>
+      <c r="N5" s="7" t="n"/>
+      <c r="O5" s="32" t="inlineStr">
+        <is>
+          <t>B3 Courses
+B3-NEW
+B3-NEW: Dr Prakash Pawar (L206)</t>
+        </is>
+      </c>
+      <c r="P5" s="6" t="n"/>
+      <c r="Q5" s="6" t="n"/>
+      <c r="R5" s="7" t="n"/>
+      <c r="S5" s="10" t="inlineStr"/>
+      <c r="T5" s="10" t="inlineStr"/>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>- LEC
 room no. :C104
 Dr. Somen Bhattacharjee</t>
         </is>
       </c>
-      <c r="G4" s="6" t="n"/>
-      <c r="H4" s="7" t="n"/>
-      <c r="I4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="10" t="inlineStr">
-        <is>
-          <t>- LEC
-room no. :C201
-Dr. Prabhu Prasad</t>
-        </is>
-      </c>
-      <c r="L4" s="6" t="n"/>
-      <c r="M4" s="7" t="n"/>
-      <c r="N4" s="31" t="inlineStr">
-        <is>
-          <t>B3 Courses
-B3-NEW
-B3-NEW: Dr Prakash Pawar (L108)</t>
-        </is>
-      </c>
-      <c r="O4" s="6" t="n"/>
-      <c r="P4" s="6" t="n"/>
-      <c r="Q4" s="7" t="n"/>
-      <c r="R4" s="10" t="inlineStr">
-        <is>
-          <t>- LEC
-room no. :C201
-Dr.Jagadish D N</t>
-        </is>
-      </c>
-      <c r="S4" s="6" t="n"/>
-      <c r="T4" s="7" t="n"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="9" t="inlineStr"/>
-      <c r="C5" s="10" t="inlineStr">
-        <is>
-          <t>- TUT
-room no. :C204
-Dr. Sibasankar Padhy</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="inlineStr"/>
-      <c r="G5" s="10" t="inlineStr">
-        <is>
-          <t>- TUT
-room no. :C203
-Dr. Somen Bhattacharjee</t>
-        </is>
-      </c>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="10" t="inlineStr">
-        <is>
-          <t>- LAB
-room no. :L405+L406
-Dr.Jagadish D N</t>
-        </is>
-      </c>
-      <c r="L5" s="6" t="n"/>
-      <c r="M5" s="6" t="n"/>
-      <c r="N5" s="7" t="n"/>
-      <c r="O5" s="9" t="inlineStr"/>
-      <c r="P5" s="10" t="inlineStr">
-        <is>
-          <t>- LEC
-room no. :C203
-Dr.Jagadish D N</t>
-        </is>
-      </c>
-      <c r="Q5" s="6" t="n"/>
-      <c r="R5" s="7" t="n"/>
-      <c r="S5" s="9" t="inlineStr"/>
-      <c r="T5" s="9" t="inlineStr"/>
-    </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B6" s="10" t="inlineStr">
-        <is>
-          <t>- LEC
-room no. :C202
-Dr. Dibyajyothi Guha</t>
-        </is>
-      </c>
       <c r="C6" s="6" t="n"/>
       <c r="D6" s="7" t="n"/>
       <c r="E6" s="8" t="inlineStr">
@@ -1363,11 +1369,11 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F6" s="10" t="inlineStr">
+      <c r="F6" s="9" t="inlineStr">
         <is>
           <t>- LEC
-room no. :C201
-Dr. Somen Bhattacharjee</t>
+room no. :C203
+Dr. Dibyajyothi Guha</t>
         </is>
       </c>
       <c r="G6" s="6" t="n"/>
@@ -1382,28 +1388,28 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="K6" s="31" t="inlineStr">
-        <is>
-          <t>B3 Courses
-B3-NEW
-B3-NEW: Dr. Aswath Babu &amp; Pof. Ravi Shankar (L107)</t>
+      <c r="K6" s="9" t="inlineStr">
+        <is>
+          <t>- LAB
+room no. :L306+L307
+Dr.Jagadish D N</t>
         </is>
       </c>
       <c r="L6" s="6" t="n"/>
       <c r="M6" s="6" t="n"/>
       <c r="N6" s="7" t="n"/>
-      <c r="O6" s="32" t="inlineStr">
-        <is>
-          <t>B4 Courses
-B4-NEW
-B4-NEW: Dr. Shirshendu L (L107)</t>
-        </is>
-      </c>
-      <c r="P6" s="6" t="n"/>
-      <c r="Q6" s="6" t="n"/>
-      <c r="R6" s="7" t="n"/>
-      <c r="S6" s="9" t="inlineStr"/>
-      <c r="T6" s="9" t="inlineStr"/>
+      <c r="O6" s="10" t="inlineStr"/>
+      <c r="P6" s="10" t="inlineStr"/>
+      <c r="Q6" s="10" t="inlineStr"/>
+      <c r="R6" s="9" t="inlineStr">
+        <is>
+          <t>- LEC
+room no. :C104
+Dr.Jagadish D N</t>
+        </is>
+      </c>
+      <c r="S6" s="6" t="n"/>
+      <c r="T6" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="17" t="inlineStr">
@@ -1447,17 +1453,17 @@
     <row r="14">
       <c r="A14" s="19" t="inlineStr">
         <is>
-          <t>B2-NEW</t>
+          <t>B1-HS151</t>
         </is>
       </c>
       <c r="B14" s="19" t="inlineStr">
         <is>
-          <t>Computer Intensive Statistical Methods</t>
+          <t>Introduction to Personal Finance</t>
         </is>
       </c>
       <c r="C14" s="19" t="inlineStr">
         <is>
-          <t>Dr Ramesh Athe</t>
+          <t>Dr. Siddharth</t>
         </is>
       </c>
       <c r="D14" s="19" t="inlineStr">
@@ -1470,7 +1476,7 @@
       </c>
       <c r="F14" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable room and time slot combination</t>
+          <t>Could not find compatible 2.0 hour timeslot for B1-HS151 LAB with faculty Dr. Siddharth</t>
         </is>
       </c>
     </row>
@@ -1500,24 +1506,24 @@
       </c>
       <c r="F15" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable room and time slot combination</t>
+          <t>Could not find compatible 2.0 hour timeslot for B1-NEW LAB with faculty Dr Jagadeesha Bhat</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="19" t="inlineStr">
         <is>
-          <t>B1-HS151</t>
+          <t>B2-NEW</t>
         </is>
       </c>
       <c r="B16" s="19" t="inlineStr">
         <is>
-          <t>Introduction to Personal Finance</t>
+          <t>Computer Intensive Statistical Methods</t>
         </is>
       </c>
       <c r="C16" s="19" t="inlineStr">
         <is>
-          <t>Dr. Siddharth</t>
+          <t>Dr Ramesh Athe</t>
         </is>
       </c>
       <c r="D16" s="19" t="inlineStr">
@@ -1530,112 +1536,105 @@
       </c>
       <c r="F16" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable room and time slot combination</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="19" t="inlineStr">
+          <t>Could not find compatible 2.0 hour timeslot for B2-NEW LAB with faculty Dr Ramesh Athe</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="20" t="inlineStr">
+        <is>
+          <t>Legend</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="21" t="inlineStr">
+        <is>
+          <t>Subject Code</t>
+        </is>
+      </c>
+      <c r="B21" s="21" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="C21" s="21" t="inlineStr">
+        <is>
+          <t>Subject Name</t>
+        </is>
+      </c>
+      <c r="D21" s="21" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="E21" s="21" t="inlineStr">
+        <is>
+          <t>LTPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="30" customHeight="1">
+      <c r="A22" s="22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B17" s="19" t="inlineStr">
-        <is>
-          <t>English Language and Communication</t>
-        </is>
-      </c>
-      <c r="C17" s="19" t="inlineStr">
-        <is>
-          <t>Dr. Rajesh N S</t>
-        </is>
-      </c>
-      <c r="D17" s="19" t="inlineStr">
-        <is>
-          <t>LEC</t>
-        </is>
-      </c>
-      <c r="E17" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19" t="inlineStr">
-        <is>
-          <t>Could not find suitable slot</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="20" t="inlineStr">
-        <is>
-          <t>Legend</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="21" t="inlineStr">
-        <is>
-          <t>Subject Code</t>
-        </is>
-      </c>
-      <c r="B22" s="21" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="C22" s="21" t="inlineStr">
-        <is>
-          <t>Subject Name</t>
-        </is>
-      </c>
-      <c r="D22" s="21" t="inlineStr">
-        <is>
-          <t>Faculty</t>
-        </is>
-      </c>
-      <c r="E22" s="21" t="inlineStr">
-        <is>
-          <t>LTPS</t>
+      <c r="B22" s="23" t="inlineStr"/>
+      <c r="C22" s="22" t="inlineStr">
+        <is>
+          <t>Computer Architecture</t>
+        </is>
+      </c>
+      <c r="D22" s="22" t="inlineStr">
+        <is>
+          <t>Dr.Jagadish D N</t>
+        </is>
+      </c>
+      <c r="E22" s="22" t="inlineStr">
+        <is>
+          <t>3-0-2-0</t>
         </is>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B23" s="23" t="inlineStr"/>
+          <t>B3-NEW</t>
+        </is>
+      </c>
+      <c r="B23" s="33" t="inlineStr"/>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Computer Architecture</t>
+          <t>Data Science with Python</t>
         </is>
       </c>
       <c r="D23" s="22" t="inlineStr">
         <is>
-          <t>Dr.Jagadish D N</t>
+          <t>Dr. Abdul Wahid</t>
         </is>
       </c>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>3-0-2-0</t>
+          <t>0-0-2-0</t>
         </is>
       </c>
     </row>
     <row r="24" ht="30" customHeight="1">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>B3-NEW</t>
-        </is>
-      </c>
-      <c r="B24" s="33" t="inlineStr"/>
+          <t>B4-NEW</t>
+        </is>
+      </c>
+      <c r="B24" s="34" t="inlineStr"/>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Data Science with Python</t>
+          <t>Linux for Engineers</t>
         </is>
       </c>
       <c r="D24" s="22" t="inlineStr">
         <is>
-          <t>Dr. Abdul Wahid</t>
+          <t>Dr. Shirshendu L</t>
         </is>
       </c>
       <c r="E24" s="22" t="inlineStr">
@@ -1647,18 +1646,18 @@
     <row r="25" ht="30" customHeight="1">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>B4-NEW</t>
-        </is>
-      </c>
-      <c r="B25" s="34" t="inlineStr"/>
+          <t>B1-NEW</t>
+        </is>
+      </c>
+      <c r="B25" s="29" t="inlineStr"/>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Linux for Engineers</t>
+          <t>Introduction to Internet of Things</t>
         </is>
       </c>
       <c r="D25" s="22" t="inlineStr">
         <is>
-          <t>Dr. Shirshendu L</t>
+          <t>Dr Jagadeesha Bhat</t>
         </is>
       </c>
       <c r="E25" s="22" t="inlineStr">
@@ -1670,64 +1669,64 @@
     <row r="26" ht="30" customHeight="1">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>B1-NEW</t>
+          <t>B1-ASD151</t>
         </is>
       </c>
       <c r="B26" s="29" t="inlineStr"/>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Introduction to Internet of Things</t>
+          <t>Introduction to Design</t>
         </is>
       </c>
       <c r="D26" s="22" t="inlineStr">
         <is>
-          <t>Dr Jagadeesha Bhat</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>0-0-2-0</t>
+          <t>0-0-1-0</t>
         </is>
       </c>
     </row>
     <row r="27" ht="30" customHeight="1">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>B1-ASD151</t>
+          <t>B1-HS151</t>
         </is>
       </c>
       <c r="B27" s="29" t="inlineStr"/>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Introduction to Design</t>
+          <t>Introduction to Personal Finance</t>
         </is>
       </c>
       <c r="D27" s="22" t="inlineStr">
         <is>
-          <t>Dr. Sandesh P</t>
+          <t>Dr. Siddharth</t>
         </is>
       </c>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>0-0-1-0</t>
+          <t>0-0-2-0</t>
         </is>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>B1-HS151</t>
-        </is>
-      </c>
-      <c r="B28" s="29" t="inlineStr"/>
+          <t>B2-NEW</t>
+        </is>
+      </c>
+      <c r="B28" s="30" t="inlineStr"/>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Introduction to Personal Finance</t>
+          <t>Computer Intensive Statistical Methods</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
         <is>
-          <t>Dr. Siddharth</t>
+          <t>Dr Ramesh Athe</t>
         </is>
       </c>
       <c r="E28" s="22" t="inlineStr">
@@ -1736,51 +1735,29 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="30" customHeight="1">
-      <c r="A29" s="22" t="inlineStr">
-        <is>
-          <t>B2-NEW</t>
-        </is>
-      </c>
-      <c r="B29" s="30" t="inlineStr"/>
-      <c r="C29" s="22" t="inlineStr">
-        <is>
-          <t>Computer Intensive Statistical Methods</t>
-        </is>
-      </c>
-      <c r="D29" s="22" t="inlineStr">
-        <is>
-          <t>Dr Ramesh Athe</t>
-        </is>
-      </c>
-      <c r="E29" s="22" t="inlineStr">
-        <is>
-          <t>0-0-2-0</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="C5:D5"/>
+  <mergeCells count="21">
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="K5:N5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F4:H4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="P2:S2"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="Q4:T4"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="R6:T6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1930,297 +1907,297 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="16" t="inlineStr">
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>MA208 LEC
+room no. :C204
+Dr. Rajib Sharma</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="7" t="n"/>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="inlineStr">
+        <is>
+          <t>EC205 LAB
+room no. :H109
+Dr. Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="6" t="n"/>
+      <c r="I2" s="7" t="n"/>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L2" s="15" t="inlineStr">
+        <is>
+          <t>EC204 LAB
+room no. :H109
+Dr. Somen Bhattacharjee</t>
+        </is>
+      </c>
+      <c r="M2" s="6" t="n"/>
+      <c r="N2" s="6" t="n"/>
+      <c r="O2" s="7" t="n"/>
+      <c r="P2" s="10" t="inlineStr"/>
+      <c r="Q2" s="5" t="inlineStr">
+        <is>
+          <t>EC310 LEC
+room no. :C202
+Dr. Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="R2" s="6" t="n"/>
+      <c r="S2" s="7" t="n"/>
+      <c r="T2" s="10" t="inlineStr"/>
+    </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="inlineStr"/>
+      <c r="C3" s="14" t="inlineStr">
+        <is>
+          <t>MA208 TUT
+room no. :C201
+Dr. Rajib Sharma</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="n"/>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="12" t="inlineStr">
+        <is>
+          <t>HS205 LEC
+room no. :C205
+Dr. Jolly Thomas IIT Dharwad</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="7" t="n"/>
+      <c r="I3" s="10" t="inlineStr"/>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="10" t="inlineStr"/>
+      <c r="M3" s="9" t="inlineStr">
+        <is>
+          <t>EC205 LEC
+room no. :C203
+Dr. Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="N3" s="6" t="n"/>
+      <c r="O3" s="7" t="n"/>
+      <c r="P3" s="10" t="inlineStr"/>
+      <c r="Q3" s="15" t="inlineStr">
+        <is>
+          <t>EC204 LEC
+room no. :C202
+Dr. Somen Bhattacharjee</t>
+        </is>
+      </c>
+      <c r="R3" s="6" t="n"/>
+      <c r="S3" s="7" t="n"/>
+      <c r="T3" s="10" t="inlineStr"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>EC310 TUT
+room no. :C204
+Dr. Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="n"/>
+      <c r="D4" s="10" t="inlineStr"/>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="10" t="inlineStr"/>
+      <c r="G4" s="10" t="inlineStr"/>
+      <c r="H4" s="11" t="inlineStr">
+        <is>
+          <t>HS204 TUT
+room no. :C101
+Dr. Anushree Kini</t>
+        </is>
+      </c>
+      <c r="I4" s="7" t="n"/>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="10" t="inlineStr"/>
+      <c r="M4" s="10" t="inlineStr"/>
+      <c r="N4" s="10" t="inlineStr"/>
+      <c r="O4" s="10" t="inlineStr"/>
+      <c r="P4" s="14" t="inlineStr">
+        <is>
+          <t>MA208 LEC
+room no. :C205
+Dr. Rajib Sharma</t>
+        </is>
+      </c>
+      <c r="Q4" s="6" t="n"/>
+      <c r="R4" s="7" t="n"/>
+      <c r="S4" s="10" t="inlineStr"/>
+      <c r="T4" s="10" t="inlineStr"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="inlineStr"/>
+      <c r="C5" s="10" t="inlineStr"/>
+      <c r="D5" s="10" t="inlineStr"/>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="inlineStr"/>
+      <c r="G5" s="9" t="inlineStr">
+        <is>
+          <t>EC205 LEC
+room no. :C202
+Dr. Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="n"/>
+      <c r="I5" s="7" t="n"/>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="10" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr">
+        <is>
+          <t>EC310 LEC
+room no. :C201
+Dr. Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="N5" s="6" t="n"/>
+      <c r="O5" s="7" t="n"/>
+      <c r="P5" s="10" t="inlineStr"/>
+      <c r="Q5" s="11" t="inlineStr">
         <is>
           <t>HS204 LEC
 room no. :C202
 Dr. Anushree Kini</t>
         </is>
       </c>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F2" s="9" t="inlineStr"/>
-      <c r="G2" s="14" t="inlineStr">
-        <is>
-          <t>MA208 LEC
-room no. :C202
-Dr. Rajib Sharma</t>
-        </is>
-      </c>
-      <c r="H2" s="6" t="n"/>
-      <c r="I2" s="7" t="n"/>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L2" s="9" t="inlineStr"/>
-      <c r="M2" s="11" t="inlineStr">
-        <is>
-          <t>EC310 LEC
-room no. :C203
-Dr. Prakash Pawar</t>
-        </is>
-      </c>
-      <c r="N2" s="6" t="n"/>
-      <c r="O2" s="7" t="n"/>
-      <c r="P2" s="9" t="inlineStr"/>
-      <c r="Q2" s="12" t="inlineStr">
+      <c r="R5" s="6" t="n"/>
+      <c r="S5" s="7" t="n"/>
+      <c r="T5" s="10" t="inlineStr"/>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="12" t="inlineStr">
+        <is>
+          <t>HS205 LEC
+room no. :C201
+Dr. Jolly Thomas IIT Dharwad</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="11" t="inlineStr">
+        <is>
+          <t>HS204 LEC
+room no. :C205
+Dr. Anushree Kini</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="n"/>
+      <c r="H6" s="7" t="n"/>
+      <c r="I6" s="10" t="inlineStr"/>
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L6" s="10" t="inlineStr"/>
+      <c r="M6" s="15" t="inlineStr">
+        <is>
+          <t>EC204 TUT
+room no. :C201
+Dr. Somen Bhattacharjee</t>
+        </is>
+      </c>
+      <c r="N6" s="7" t="n"/>
+      <c r="O6" s="10" t="inlineStr"/>
+      <c r="P6" s="15" t="inlineStr">
         <is>
           <t>EC204 LEC
 room no. :C202
 Dr. Somen Bhattacharjee</t>
         </is>
       </c>
-      <c r="R2" s="6" t="n"/>
-      <c r="S2" s="7" t="n"/>
-      <c r="T2" s="9" t="inlineStr"/>
-    </row>
-    <row r="3" ht="40" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B3" s="16" t="inlineStr">
-        <is>
-          <t>HS204 TUT
-room no. :C104
-Dr. Anushree Kini</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="n"/>
-      <c r="D3" s="9" t="inlineStr"/>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="inlineStr"/>
-      <c r="G3" s="12" t="inlineStr">
-        <is>
-          <t>EC204 TUT
-room no. :C204
-Dr. Somen Bhattacharjee</t>
-        </is>
-      </c>
-      <c r="H3" s="7" t="n"/>
-      <c r="I3" s="9" t="inlineStr"/>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr"/>
-      <c r="M3" s="14" t="inlineStr">
-        <is>
-          <t>MA208 LEC
-room no. :C102
-Dr. Rajib Sharma</t>
-        </is>
-      </c>
-      <c r="N3" s="6" t="n"/>
-      <c r="O3" s="7" t="n"/>
-      <c r="P3" s="9" t="inlineStr"/>
-      <c r="Q3" s="9" t="inlineStr"/>
-      <c r="R3" s="15" t="inlineStr">
-        <is>
-          <t>HS205 LEC
-room no. :C204
-Dr. Jolly Thomas IIT Dharwad</t>
-        </is>
-      </c>
-      <c r="S3" s="6" t="n"/>
-      <c r="T3" s="7" t="n"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="15" t="inlineStr">
-        <is>
-          <t>HS205 LEC
-room no. :C201
-Dr. Jolly Thomas IIT Dharwad</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="9" t="inlineStr"/>
-      <c r="G4" s="9" t="inlineStr"/>
-      <c r="H4" s="9" t="inlineStr"/>
-      <c r="I4" s="9" t="inlineStr"/>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L4" s="9" t="inlineStr"/>
-      <c r="M4" s="9" t="inlineStr"/>
-      <c r="N4" s="9" t="inlineStr"/>
-      <c r="O4" s="12" t="inlineStr">
-        <is>
-          <t>EC204 LEC
-room no. :C201
-Dr. Somen Bhattacharjee</t>
-        </is>
-      </c>
-      <c r="P4" s="6" t="n"/>
-      <c r="Q4" s="7" t="n"/>
-      <c r="R4" s="9" t="inlineStr"/>
-      <c r="S4" s="9" t="inlineStr"/>
-      <c r="T4" s="9" t="inlineStr"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>EC310 LEC
-room no. :C205
-Dr. Prakash Pawar</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="10" t="inlineStr">
-        <is>
-          <t>EC205 LEC
-room no. :C204
-Dr. Pankaj Kumar</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="9" t="inlineStr"/>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="10" t="inlineStr">
-        <is>
-          <t>EC205 LAB
-room no. :H109
-Dr. Pankaj Kumar</t>
-        </is>
-      </c>
-      <c r="M5" s="6" t="n"/>
-      <c r="N5" s="6" t="n"/>
-      <c r="O5" s="7" t="n"/>
-      <c r="P5" s="9" t="inlineStr"/>
-      <c r="Q5" s="9" t="inlineStr"/>
-      <c r="R5" s="9" t="inlineStr"/>
-      <c r="S5" s="14" t="inlineStr">
-        <is>
-          <t>MA208 TUT
-room no. :C203
-Dr. Rajib Sharma</t>
-        </is>
-      </c>
-      <c r="T5" s="7" t="n"/>
-    </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B6" s="10" t="inlineStr">
-        <is>
-          <t>EC205 LEC
-room no. :C203
-Dr. Pankaj Kumar</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="inlineStr"/>
-      <c r="G6" s="9" t="inlineStr"/>
-      <c r="H6" s="11" t="inlineStr">
-        <is>
-          <t>EC310 TUT
-room no. :C203
-Dr. Prakash Pawar</t>
-        </is>
-      </c>
-      <c r="I6" s="7" t="n"/>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L6" s="12" t="inlineStr">
-        <is>
-          <t>EC204 LAB
-room no. :H109
-Dr. Somen Bhattacharjee</t>
-        </is>
-      </c>
-      <c r="M6" s="6" t="n"/>
-      <c r="N6" s="6" t="n"/>
-      <c r="O6" s="7" t="n"/>
-      <c r="P6" s="9" t="inlineStr"/>
-      <c r="Q6" s="9" t="inlineStr"/>
-      <c r="R6" s="16" t="inlineStr">
-        <is>
-          <t>HS204 LEC
-room no. :C202
-Dr. Anushree Kini</t>
-        </is>
-      </c>
-      <c r="S6" s="6" t="n"/>
-      <c r="T6" s="7" t="n"/>
+      <c r="Q6" s="6" t="n"/>
+      <c r="R6" s="7" t="n"/>
+      <c r="S6" s="10" t="inlineStr"/>
+      <c r="T6" s="10" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="20" t="inlineStr">
@@ -2396,24 +2373,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="M5:O5"/>
     <mergeCell ref="M3:O3"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="Q3:S3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2425,7 +2402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2563,7 +2540,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="16" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve"> B4-DS351 LEC
 room no. :L106
@@ -2577,14 +2554,14 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F2" s="10" t="inlineStr">
-        <is>
-          <t>B4 LAB
+      <c r="F2" s="10" t="inlineStr"/>
+      <c r="G2" s="14" t="inlineStr">
+        <is>
+          <t>B2 LEC
 room no. :L108
-Dr. Girish G N</t>
-        </is>
-      </c>
-      <c r="G2" s="6" t="n"/>
+Dr. Pavan</t>
+        </is>
+      </c>
       <c r="H2" s="6" t="n"/>
       <c r="I2" s="7" t="n"/>
       <c r="J2" s="8" t="inlineStr">
@@ -2597,27 +2574,33 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L2" s="9" t="inlineStr"/>
-      <c r="M2" s="14" t="inlineStr">
-        <is>
-          <t>B2 LEC
+      <c r="L2" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B4 TUT
 room no. :L108
-Dr. Pavan</t>
-        </is>
-      </c>
-      <c r="N2" s="6" t="n"/>
-      <c r="O2" s="7" t="n"/>
-      <c r="P2" s="9" t="inlineStr"/>
-      <c r="Q2" s="11" t="inlineStr">
-        <is>
-          <t>B3 LEC
-room no. :L108
-Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
-        </is>
-      </c>
-      <c r="R2" s="6" t="n"/>
-      <c r="S2" s="7" t="n"/>
-      <c r="T2" s="9" t="inlineStr"/>
+Dr. Sunil C K </t>
+        </is>
+      </c>
+      <c r="M2" s="7" t="n"/>
+      <c r="N2" s="10" t="inlineStr"/>
+      <c r="O2" s="9" t="inlineStr">
+        <is>
+          <t>B4 LEC
+room no. :L107
+Dr. Girish G N</t>
+        </is>
+      </c>
+      <c r="P2" s="6" t="n"/>
+      <c r="Q2" s="7" t="n"/>
+      <c r="R2" s="10" t="inlineStr"/>
+      <c r="S2" s="16" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-CS464
+B1-CS464: Dr. Chinmayanand (L305)</t>
+        </is>
+      </c>
+      <c r="T2" s="7" t="n"/>
     </row>
     <row r="3" ht="40" customHeight="1">
       <c r="A3" t="inlineStr">
@@ -2625,278 +2608,264 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="13" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>B3 TUT
+room no. :L106
+Dr. Vivekraj V K</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="n"/>
+      <c r="D3" s="10" t="inlineStr"/>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>B4 LAB
+room no. :L106
+Dr. Girish G N</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="6" t="n"/>
+      <c r="I3" s="7" t="n"/>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B4 LEC
+room no. :L108
+Dr. Sunil C K </t>
+        </is>
+      </c>
+      <c r="M3" s="6" t="n"/>
+      <c r="N3" s="7" t="n"/>
+      <c r="O3" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> B4-DS351 TUT
+room no. :L108
+Dr. Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="P3" s="7" t="n"/>
+      <c r="Q3" s="10" t="inlineStr"/>
+      <c r="R3" s="15" t="inlineStr">
+        <is>
+          <t>CS307 LEC
+room no. :C203
+Dr. Rajib Sharma</t>
+        </is>
+      </c>
+      <c r="S3" s="6" t="n"/>
+      <c r="T3" s="7" t="n"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="16" t="inlineStr">
         <is>
           <t>B1 Courses
 B1-CS464
-B1-CS464: Dr. Chinmayanand (L302)</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="11" t="inlineStr">
+B1-CS464: Dr. Chinmayanand (L303)</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="7" t="n"/>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>B3 LEC
 room no. :L108
 Dr. Vivekraj V K</t>
         </is>
       </c>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="7" t="n"/>
-      <c r="I3" s="9" t="inlineStr"/>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="13" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-CS458, B1-NEW
-B1-CS458: Dr. Krishnendu (L401)
-B1-NEW: Prof. SRM Prasanna (L301)</t>
-        </is>
-      </c>
-      <c r="M3" s="7" t="n"/>
-      <c r="N3" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> B4-DS351 TUT
-room no. :L108
-Dr. Ramesh Athe</t>
-        </is>
-      </c>
-      <c r="O3" s="7" t="n"/>
-      <c r="P3" s="12" t="inlineStr">
-        <is>
-          <t>CS307 LEC
-room no. :C205
-Dr. Rajib Sharma</t>
-        </is>
-      </c>
-      <c r="Q3" s="6" t="n"/>
-      <c r="R3" s="7" t="n"/>
-      <c r="S3" s="13" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-CS458, B1-NEW
-B1-CS458: Dr. Krishnendu (L401)
-B1-NEW: Prof. SRM Prasanna (L301)</t>
-        </is>
-      </c>
-      <c r="T3" s="7" t="n"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>B4 LEC
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="7" t="n"/>
+      <c r="I4" s="10" t="inlineStr"/>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="14" t="inlineStr">
+        <is>
+          <t>B2 LEC
 room no. :L106
-Dr. Girish G N</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="9" t="inlineStr"/>
-      <c r="G4" s="14" t="inlineStr">
-        <is>
-          <t>B2 LEC
-room no. :L108
-Dr. Aswath B</t>
-        </is>
-      </c>
-      <c r="H4" s="6" t="n"/>
-      <c r="I4" s="7" t="n"/>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L4" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B4 LEC
-room no. :H109
-Dr. Sunil C K </t>
+Dr. Pavan</t>
         </is>
       </c>
       <c r="M4" s="6" t="n"/>
       <c r="N4" s="7" t="n"/>
-      <c r="O4" s="9" t="inlineStr"/>
-      <c r="P4" s="14" t="inlineStr">
+      <c r="O4" s="13" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-EC361
+B2-EC361: Dr. Jagadeesha R Bhat (L401)</t>
+        </is>
+      </c>
+      <c r="P4" s="7" t="n"/>
+      <c r="Q4" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B4 LEC
+room no. :L107
+Dr. Sunil C K </t>
+        </is>
+      </c>
+      <c r="R4" s="6" t="n"/>
+      <c r="S4" s="7" t="n"/>
+      <c r="T4" s="10" t="inlineStr"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>B3 LEC
+room no. :L106
+Dr. Vivekraj V K</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="15" t="inlineStr">
+        <is>
+          <t>CS307 LEC
+room no. :C203
+Dr. Rajib Sharma</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="7" t="n"/>
+      <c r="I5" s="10" t="inlineStr"/>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="10" t="inlineStr"/>
+      <c r="M5" s="16" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-CS464
+B1-CS464: Dr. Chinmayanand (L301)</t>
+        </is>
+      </c>
+      <c r="N5" s="6" t="n"/>
+      <c r="O5" s="7" t="n"/>
+      <c r="P5" s="10" t="inlineStr"/>
+      <c r="Q5" s="5" t="inlineStr">
+        <is>
+          <t>B3 LEC
+room no. :H109
+Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
+        </is>
+      </c>
+      <c r="R5" s="6" t="n"/>
+      <c r="S5" s="7" t="n"/>
+      <c r="T5" s="10" t="inlineStr"/>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> B4-DS351 LEC
+room no. :L106
+Dr. Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="10" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>B3 LEC
+room no. :L106
+Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="n"/>
+      <c r="I6" s="7" t="n"/>
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L6" s="14" t="inlineStr">
+        <is>
+          <t>B2 LEC
+room no. :H109
+Dr. Aswath B</t>
+        </is>
+      </c>
+      <c r="M6" s="6" t="n"/>
+      <c r="N6" s="7" t="n"/>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>B3 TUT
+room no. :L108
+Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
+        </is>
+      </c>
+      <c r="P6" s="7" t="n"/>
+      <c r="Q6" s="10" t="inlineStr"/>
+      <c r="R6" s="14" t="inlineStr">
         <is>
           <t>B2 LEC
 room no. :L106
 Dr. Aswath B</t>
         </is>
       </c>
-      <c r="Q4" s="6" t="n"/>
-      <c r="R4" s="7" t="n"/>
-      <c r="S4" s="11" t="inlineStr">
-        <is>
-          <t>B3 TUT
-room no. :L106
-Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
-        </is>
-      </c>
-      <c r="T4" s="7" t="n"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B4 LEC
-room no. :L106
-Dr. Sunil C K </t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="11" t="inlineStr">
-        <is>
-          <t>B3 LEC
-room no. :L106
-Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="9" t="inlineStr"/>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="14" t="inlineStr">
-        <is>
-          <t>B2 LEC
-room no. :C102
-Dr. Pavan</t>
-        </is>
-      </c>
-      <c r="M5" s="6" t="n"/>
-      <c r="N5" s="7" t="n"/>
-      <c r="O5" s="9" t="inlineStr"/>
-      <c r="P5" s="11" t="inlineStr">
-        <is>
-          <t>B3 LEC
-room no. :L106
-Dr. Vivekraj V K</t>
-        </is>
-      </c>
-      <c r="Q5" s="6" t="n"/>
-      <c r="R5" s="7" t="n"/>
-      <c r="S5" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B4 TUT
-room no. :L106
-Dr. Sunil C K </t>
-        </is>
-      </c>
-      <c r="T5" s="7" t="n"/>
-    </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B6" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> B4-DS351 LEC
-room no. :L106
-Dr. Ramesh Athe</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="inlineStr"/>
-      <c r="G6" s="11" t="inlineStr">
-        <is>
-          <t>B3 TUT
-room no. :L108
-Dr. Vivekraj V K</t>
-        </is>
-      </c>
-      <c r="H6" s="7" t="n"/>
-      <c r="I6" s="9" t="inlineStr"/>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L6" s="9" t="inlineStr"/>
-      <c r="M6" s="13" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-CS464
-B1-CS464: Dr. Chinmayanand (L303)</t>
-        </is>
-      </c>
-      <c r="N6" s="7" t="n"/>
-      <c r="O6" s="12" t="inlineStr">
-        <is>
-          <t>CS307 LEC
-room no. :C203
-Dr. Rajib Sharma</t>
-        </is>
-      </c>
-      <c r="P6" s="6" t="n"/>
-      <c r="Q6" s="7" t="n"/>
-      <c r="R6" s="9" t="inlineStr"/>
-      <c r="S6" s="5" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-EC361
-B2-EC361: Dr. Jagadeesha R Bhat (L304)</t>
-        </is>
-      </c>
+      <c r="S6" s="6" t="n"/>
       <c r="T6" s="7" t="n"/>
     </row>
     <row r="9">
@@ -2982,22 +2951,22 @@
     <row r="19">
       <c r="A19" s="19" t="inlineStr">
         <is>
-          <t>B2-CS455</t>
+          <t>B1-CS458</t>
         </is>
       </c>
       <c r="B19" s="19" t="inlineStr">
         <is>
-          <t>Blockchain Technology</t>
+          <t>Natural Language Processing</t>
         </is>
       </c>
       <c r="C19" s="19" t="inlineStr">
         <is>
-          <t>Dr. Rajendra H</t>
+          <t>Dr. Krishnendu</t>
         </is>
       </c>
       <c r="D19" s="19" t="inlineStr">
         <is>
-          <t>LEC</t>
+          <t>TUT</t>
         </is>
       </c>
       <c r="E19" s="19" t="n">
@@ -3005,7 +2974,7 @@
       </c>
       <c r="F19" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
         </is>
       </c>
     </row>
@@ -3035,24 +3004,24 @@
       </c>
       <c r="F20" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="19" t="inlineStr">
         <is>
-          <t>B3-CS307</t>
+          <t>B1-NEW</t>
         </is>
       </c>
       <c r="B21" s="19" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Deep Speech Processing</t>
         </is>
       </c>
       <c r="C21" s="19" t="inlineStr">
         <is>
-          <t>Dr. Deepak K T</t>
+          <t>Prof. SRM Prasanna</t>
         </is>
       </c>
       <c r="D21" s="19" t="inlineStr">
@@ -3065,7 +3034,7 @@
       </c>
       <c r="F21" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
         </is>
       </c>
     </row>
@@ -3095,24 +3064,24 @@
       </c>
       <c r="F22" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="19" t="inlineStr">
         <is>
-          <t>B2-EC361</t>
+          <t>B2-CS455</t>
         </is>
       </c>
       <c r="B23" s="19" t="inlineStr">
         <is>
-          <t>Introduction to 5G Network</t>
+          <t>Blockchain Technology</t>
         </is>
       </c>
       <c r="C23" s="19" t="inlineStr">
         <is>
-          <t>Dr. Jagadeesha R Bhat</t>
+          <t>Dr. Rajendra H</t>
         </is>
       </c>
       <c r="D23" s="19" t="inlineStr">
@@ -3125,29 +3094,29 @@
       </c>
       <c r="F23" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="19" t="inlineStr">
         <is>
-          <t>B2-NEW</t>
+          <t>B2-EC361</t>
         </is>
       </c>
       <c r="B24" s="19" t="inlineStr">
         <is>
-          <t>Design Thinking and Innovation</t>
+          <t>Introduction to 5G Network</t>
         </is>
       </c>
       <c r="C24" s="19" t="inlineStr">
         <is>
-          <t>Dr. Sandesh P</t>
+          <t>Dr. Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="D24" s="19" t="inlineStr">
         <is>
-          <t>TUT</t>
+          <t>LEC</t>
         </is>
       </c>
       <c r="E24" s="19" t="n">
@@ -3155,7 +3124,7 @@
       </c>
       <c r="F24" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
         </is>
       </c>
     </row>
@@ -3185,24 +3154,24 @@
       </c>
       <c r="F25" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="19" t="inlineStr">
         <is>
-          <t>B1-NEW</t>
+          <t>B1-CS458</t>
         </is>
       </c>
       <c r="B26" s="19" t="inlineStr">
         <is>
-          <t>Large Languange Models</t>
+          <t>Natural Language Processing</t>
         </is>
       </c>
       <c r="C26" s="19" t="inlineStr">
         <is>
-          <t>Dr. Sunil S</t>
+          <t>Dr. Krishnendu</t>
         </is>
       </c>
       <c r="D26" s="19" t="inlineStr">
@@ -3215,24 +3184,24 @@
       </c>
       <c r="F26" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="19" t="inlineStr">
         <is>
-          <t>B1-CS458</t>
+          <t>B1-NEW</t>
         </is>
       </c>
       <c r="B27" s="19" t="inlineStr">
         <is>
-          <t>Natural Language Processing</t>
+          <t>Large Languange Models</t>
         </is>
       </c>
       <c r="C27" s="19" t="inlineStr">
         <is>
-          <t>Dr. Krishnendu</t>
+          <t>Dr. Sunil S</t>
         </is>
       </c>
       <c r="D27" s="19" t="inlineStr">
@@ -3245,29 +3214,29 @@
       </c>
       <c r="F27" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="19" t="inlineStr">
         <is>
-          <t>B1-CS464</t>
+          <t>B3-CS307</t>
         </is>
       </c>
       <c r="B28" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deep Learning for Computer Vision </t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C28" s="19" t="inlineStr">
         <is>
-          <t>Dr. Chinmayanand</t>
+          <t>Dr. Deepak K T</t>
         </is>
       </c>
       <c r="D28" s="19" t="inlineStr">
         <is>
-          <t>LEC</t>
+          <t>TUT</t>
         </is>
       </c>
       <c r="E28" s="19" t="n">
@@ -3275,105 +3244,112 @@
       </c>
       <c r="F28" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="20" t="inlineStr">
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="19" t="inlineStr">
+        <is>
+          <t>B2-NEW</t>
+        </is>
+      </c>
+      <c r="B29" s="19" t="inlineStr">
+        <is>
+          <t>Design Thinking and Innovation</t>
+        </is>
+      </c>
+      <c r="C29" s="19" t="inlineStr">
+        <is>
+          <t>Dr. Sandesh P</t>
+        </is>
+      </c>
+      <c r="D29" s="19" t="inlineStr">
+        <is>
+          <t>TUT</t>
+        </is>
+      </c>
+      <c r="E29" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="19" t="inlineStr">
+        <is>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="20" t="inlineStr">
         <is>
           <t>Legend</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="21" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="21" t="inlineStr">
         <is>
           <t>Subject Code</t>
         </is>
       </c>
-      <c r="B33" s="21" t="inlineStr">
+      <c r="B34" s="21" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
       </c>
-      <c r="C33" s="21" t="inlineStr">
+      <c r="C34" s="21" t="inlineStr">
         <is>
           <t>Subject Name</t>
         </is>
       </c>
-      <c r="D33" s="21" t="inlineStr">
+      <c r="D34" s="21" t="inlineStr">
         <is>
           <t>Faculty</t>
         </is>
       </c>
-      <c r="E33" s="21" t="inlineStr">
+      <c r="E34" s="21" t="inlineStr">
         <is>
           <t>LTPS</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="30" customHeight="1">
-      <c r="A34" s="22" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="B34" s="23" t="inlineStr"/>
-      <c r="C34" s="22" t="inlineStr">
-        <is>
-          <t>Medical Image Analysis</t>
-        </is>
-      </c>
-      <c r="D34" s="22" t="inlineStr">
-        <is>
-          <t>Dr. Girish G N</t>
-        </is>
-      </c>
-      <c r="E34" s="22" t="inlineStr">
-        <is>
-          <t>2-0-2-4</t>
         </is>
       </c>
     </row>
     <row r="35" ht="30" customHeight="1">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="B35" s="24" t="inlineStr"/>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="B35" s="23" t="inlineStr"/>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Wireless Communication</t>
+          <t>Medical Image Analysis</t>
         </is>
       </c>
       <c r="D35" s="22" t="inlineStr">
         <is>
-          <t>Dr. Rajib Sharma/ Dr. Rao (Lab)</t>
+          <t>Dr. Girish G N</t>
         </is>
       </c>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>3-0-0-4</t>
+          <t>2-0-2-4</t>
         </is>
       </c>
     </row>
     <row r="36" ht="30" customHeight="1">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="B36" s="25" t="inlineStr"/>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B36" s="24" t="inlineStr"/>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Model Checking</t>
+          <t>Wireless Communication</t>
         </is>
       </c>
       <c r="D36" s="22" t="inlineStr">
         <is>
-          <t>Dr. Pavan</t>
+          <t>Dr. Rajib Sharma/ Dr. Rao (Lab)</t>
         </is>
       </c>
       <c r="E36" s="22" t="inlineStr">
@@ -3385,41 +3361,41 @@
     <row r="37" ht="30" customHeight="1">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="B37" s="26" t="inlineStr"/>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="B37" s="25" t="inlineStr"/>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Automotive Embedded and Multimedia Systems/Microwave Engineering/Computer Graphics/Machine learning/Virtualization and Cloud Computing</t>
+          <t>Model Checking</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
         <is>
-          <t>Mr. Jagadeesh K (Dr Sibasankar Padhy)/Dr. Somen/Dr. Vivekraj V K/Dr. Deepak KT/Dr Malay</t>
+          <t>Dr. Pavan</t>
         </is>
       </c>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>3-1-0-0</t>
+          <t>3-0-0-4</t>
         </is>
       </c>
     </row>
     <row r="38" ht="30" customHeight="1">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> B4-DS351</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="inlineStr"/>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="B38" s="26" t="inlineStr"/>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Statistics for Health Technology</t>
+          <t>Automotive Embedded and Multimedia Systems/Microwave Engineering/Computer Graphics/Machine learning/Virtualization and Cloud Computing</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t>Dr. Ramesh Athe</t>
+          <t>Mr. Jagadeesh K (Dr Sibasankar Padhy)/Dr. Somen/Dr. Vivekraj V K/Dr. Deepak KT/Dr Malay</t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
@@ -3431,18 +3407,18 @@
     <row r="39" ht="30" customHeight="1">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>B1-CS464</t>
-        </is>
-      </c>
-      <c r="B39" s="29" t="inlineStr"/>
+          <t xml:space="preserve"> B4-DS351</t>
+        </is>
+      </c>
+      <c r="B39" s="27" t="inlineStr"/>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deep Learning for Computer Vision </t>
+          <t>Statistics for Health Technology</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t>Dr. Chinmayanand</t>
+          <t>Dr. Ramesh Athe</t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
@@ -3454,41 +3430,41 @@
     <row r="40" ht="30" customHeight="1">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>B1-NEW</t>
+          <t>B1-CS464</t>
         </is>
       </c>
       <c r="B40" s="29" t="inlineStr"/>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Large Languange Models</t>
+          <t xml:space="preserve">Deep Learning for Computer Vision </t>
         </is>
       </c>
       <c r="D40" s="22" t="inlineStr">
         <is>
-          <t>Dr. Sunil S</t>
+          <t>Dr. Chinmayanand</t>
         </is>
       </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>3-0-0-4</t>
+          <t>3-1-0-0</t>
         </is>
       </c>
     </row>
     <row r="41" ht="30" customHeight="1">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>B2-CS455</t>
-        </is>
-      </c>
-      <c r="B41" s="30" t="inlineStr"/>
+          <t>B1-NEW</t>
+        </is>
+      </c>
+      <c r="B41" s="29" t="inlineStr"/>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Blockchain Technology</t>
+          <t>Large Languange Models</t>
         </is>
       </c>
       <c r="D41" s="22" t="inlineStr">
         <is>
-          <t>Dr. Rajendra H</t>
+          <t>Dr. Sunil S</t>
         </is>
       </c>
       <c r="E41" s="22" t="inlineStr">
@@ -3500,41 +3476,41 @@
     <row r="42" ht="30" customHeight="1">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>B2-EC361</t>
+          <t>B2-CS455</t>
         </is>
       </c>
       <c r="B42" s="30" t="inlineStr"/>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Introduction to 5G Network</t>
+          <t>Blockchain Technology</t>
         </is>
       </c>
       <c r="D42" s="22" t="inlineStr">
         <is>
-          <t>Dr. Jagadeesha R Bhat</t>
+          <t>Dr. Rajendra H</t>
         </is>
       </c>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>3-1-0-0</t>
+          <t>3-0-0-4</t>
         </is>
       </c>
     </row>
     <row r="43" ht="30" customHeight="1">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>B1-CS458</t>
-        </is>
-      </c>
-      <c r="B43" s="29" t="inlineStr"/>
+          <t>B2-EC361</t>
+        </is>
+      </c>
+      <c r="B43" s="30" t="inlineStr"/>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Natural Language Processing</t>
+          <t>Introduction to 5G Network</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t>Dr. Krishnendu</t>
+          <t>Dr. Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
@@ -3546,18 +3522,18 @@
     <row r="44" ht="30" customHeight="1">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>B2-NEW</t>
-        </is>
-      </c>
-      <c r="B44" s="30" t="inlineStr"/>
+          <t>B1-CS458</t>
+        </is>
+      </c>
+      <c r="B44" s="29" t="inlineStr"/>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Design Thinking and Innovation</t>
+          <t>Natural Language Processing</t>
         </is>
       </c>
       <c r="D44" s="22" t="inlineStr">
         <is>
-          <t>Dr. Sandesh P</t>
+          <t>Dr. Krishnendu</t>
         </is>
       </c>
       <c r="E44" s="22" t="inlineStr">
@@ -3569,18 +3545,18 @@
     <row r="45" ht="30" customHeight="1">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>B3-CS307</t>
-        </is>
-      </c>
-      <c r="B45" s="33" t="inlineStr"/>
+          <t>B2-NEW</t>
+        </is>
+      </c>
+      <c r="B45" s="30" t="inlineStr"/>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Design Thinking and Innovation</t>
         </is>
       </c>
       <c r="D45" s="22" t="inlineStr">
         <is>
-          <t>Dr. Deepak K T</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="E45" s="22" t="inlineStr">
@@ -3592,53 +3568,75 @@
     <row r="46" ht="30" customHeight="1">
       <c r="A46" s="22" t="inlineStr">
         <is>
+          <t>B3-CS307</t>
+        </is>
+      </c>
+      <c r="B46" s="33" t="inlineStr"/>
+      <c r="C46" s="22" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="D46" s="22" t="inlineStr">
+        <is>
+          <t>Dr. Deepak K T</t>
+        </is>
+      </c>
+      <c r="E46" s="22" t="inlineStr">
+        <is>
+          <t>3-1-0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="30" customHeight="1">
+      <c r="A47" s="22" t="inlineStr">
+        <is>
           <t>Mini Project 1</t>
         </is>
       </c>
-      <c r="B46" s="42" t="inlineStr"/>
-      <c r="C46" s="22" t="inlineStr">
+      <c r="B47" s="42" t="inlineStr"/>
+      <c r="C47" s="22" t="inlineStr">
         <is>
           <t>Mini Project 1</t>
         </is>
       </c>
-      <c r="D46" s="22" t="inlineStr">
+      <c r="D47" s="22" t="inlineStr">
         <is>
           <t>Dr. Pankaj Kumar</t>
         </is>
       </c>
-      <c r="E46" s="22" t="inlineStr">
+      <c r="E47" s="22" t="inlineStr">
         <is>
           <t>0-0-0-8</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="24">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q5:S5"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="L4:N4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="L6:N6"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="F3:I3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="R6:T6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3788,18 +3786,18 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="9" t="inlineStr"/>
-      <c r="C2" s="9" t="inlineStr"/>
-      <c r="D2" s="9" t="inlineStr"/>
+      <c r="B2" s="10" t="inlineStr"/>
+      <c r="C2" s="10" t="inlineStr"/>
+      <c r="D2" s="10" t="inlineStr"/>
       <c r="E2" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F2" s="9" t="inlineStr"/>
-      <c r="G2" s="9" t="inlineStr"/>
-      <c r="H2" s="9" t="inlineStr"/>
-      <c r="I2" s="9" t="inlineStr"/>
+      <c r="F2" s="10" t="inlineStr"/>
+      <c r="G2" s="10" t="inlineStr"/>
+      <c r="H2" s="10" t="inlineStr"/>
+      <c r="I2" s="10" t="inlineStr"/>
       <c r="J2" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -3810,15 +3808,15 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L2" s="9" t="inlineStr"/>
-      <c r="M2" s="9" t="inlineStr"/>
-      <c r="N2" s="9" t="inlineStr"/>
-      <c r="O2" s="9" t="inlineStr"/>
-      <c r="P2" s="9" t="inlineStr"/>
-      <c r="Q2" s="9" t="inlineStr"/>
-      <c r="R2" s="9" t="inlineStr"/>
-      <c r="S2" s="9" t="inlineStr"/>
-      <c r="T2" s="9" t="inlineStr"/>
+      <c r="L2" s="10" t="inlineStr"/>
+      <c r="M2" s="10" t="inlineStr"/>
+      <c r="N2" s="10" t="inlineStr"/>
+      <c r="O2" s="10" t="inlineStr"/>
+      <c r="P2" s="10" t="inlineStr"/>
+      <c r="Q2" s="10" t="inlineStr"/>
+      <c r="R2" s="10" t="inlineStr"/>
+      <c r="S2" s="10" t="inlineStr"/>
+      <c r="T2" s="10" t="inlineStr"/>
     </row>
     <row r="3" ht="40" customHeight="1">
       <c r="A3" t="inlineStr">
@@ -3826,18 +3824,18 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr"/>
-      <c r="C3" s="9" t="inlineStr"/>
-      <c r="D3" s="9" t="inlineStr"/>
+      <c r="B3" s="10" t="inlineStr"/>
+      <c r="C3" s="10" t="inlineStr"/>
+      <c r="D3" s="10" t="inlineStr"/>
       <c r="E3" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F3" s="9" t="inlineStr"/>
-      <c r="G3" s="9" t="inlineStr"/>
-      <c r="H3" s="9" t="inlineStr"/>
-      <c r="I3" s="9" t="inlineStr"/>
+      <c r="F3" s="10" t="inlineStr"/>
+      <c r="G3" s="10" t="inlineStr"/>
+      <c r="H3" s="10" t="inlineStr"/>
+      <c r="I3" s="10" t="inlineStr"/>
       <c r="J3" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -3848,15 +3846,15 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L3" s="9" t="inlineStr"/>
-      <c r="M3" s="9" t="inlineStr"/>
-      <c r="N3" s="9" t="inlineStr"/>
-      <c r="O3" s="9" t="inlineStr"/>
-      <c r="P3" s="9" t="inlineStr"/>
-      <c r="Q3" s="9" t="inlineStr"/>
-      <c r="R3" s="9" t="inlineStr"/>
-      <c r="S3" s="9" t="inlineStr"/>
-      <c r="T3" s="9" t="inlineStr"/>
+      <c r="L3" s="10" t="inlineStr"/>
+      <c r="M3" s="10" t="inlineStr"/>
+      <c r="N3" s="10" t="inlineStr"/>
+      <c r="O3" s="10" t="inlineStr"/>
+      <c r="P3" s="10" t="inlineStr"/>
+      <c r="Q3" s="10" t="inlineStr"/>
+      <c r="R3" s="10" t="inlineStr"/>
+      <c r="S3" s="10" t="inlineStr"/>
+      <c r="T3" s="10" t="inlineStr"/>
     </row>
     <row r="4" ht="40" customHeight="1">
       <c r="A4" t="inlineStr">
@@ -3864,18 +3862,18 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="9" t="inlineStr"/>
-      <c r="C4" s="9" t="inlineStr"/>
-      <c r="D4" s="9" t="inlineStr"/>
+      <c r="B4" s="10" t="inlineStr"/>
+      <c r="C4" s="10" t="inlineStr"/>
+      <c r="D4" s="10" t="inlineStr"/>
       <c r="E4" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F4" s="9" t="inlineStr"/>
-      <c r="G4" s="9" t="inlineStr"/>
-      <c r="H4" s="9" t="inlineStr"/>
-      <c r="I4" s="9" t="inlineStr"/>
+      <c r="F4" s="10" t="inlineStr"/>
+      <c r="G4" s="10" t="inlineStr"/>
+      <c r="H4" s="10" t="inlineStr"/>
+      <c r="I4" s="10" t="inlineStr"/>
       <c r="J4" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -3886,15 +3884,15 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L4" s="9" t="inlineStr"/>
-      <c r="M4" s="9" t="inlineStr"/>
-      <c r="N4" s="9" t="inlineStr"/>
-      <c r="O4" s="9" t="inlineStr"/>
-      <c r="P4" s="9" t="inlineStr"/>
-      <c r="Q4" s="9" t="inlineStr"/>
-      <c r="R4" s="9" t="inlineStr"/>
-      <c r="S4" s="9" t="inlineStr"/>
-      <c r="T4" s="9" t="inlineStr"/>
+      <c r="L4" s="10" t="inlineStr"/>
+      <c r="M4" s="10" t="inlineStr"/>
+      <c r="N4" s="10" t="inlineStr"/>
+      <c r="O4" s="10" t="inlineStr"/>
+      <c r="P4" s="10" t="inlineStr"/>
+      <c r="Q4" s="10" t="inlineStr"/>
+      <c r="R4" s="10" t="inlineStr"/>
+      <c r="S4" s="10" t="inlineStr"/>
+      <c r="T4" s="10" t="inlineStr"/>
     </row>
     <row r="5" ht="40" customHeight="1">
       <c r="A5" t="inlineStr">
@@ -3902,18 +3900,18 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="9" t="inlineStr"/>
-      <c r="C5" s="9" t="inlineStr"/>
-      <c r="D5" s="9" t="inlineStr"/>
+      <c r="B5" s="10" t="inlineStr"/>
+      <c r="C5" s="10" t="inlineStr"/>
+      <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F5" s="9" t="inlineStr"/>
-      <c r="G5" s="9" t="inlineStr"/>
-      <c r="H5" s="9" t="inlineStr"/>
-      <c r="I5" s="9" t="inlineStr"/>
+      <c r="F5" s="10" t="inlineStr"/>
+      <c r="G5" s="10" t="inlineStr"/>
+      <c r="H5" s="10" t="inlineStr"/>
+      <c r="I5" s="10" t="inlineStr"/>
       <c r="J5" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -3924,15 +3922,15 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L5" s="9" t="inlineStr"/>
-      <c r="M5" s="9" t="inlineStr"/>
-      <c r="N5" s="9" t="inlineStr"/>
-      <c r="O5" s="9" t="inlineStr"/>
-      <c r="P5" s="9" t="inlineStr"/>
-      <c r="Q5" s="9" t="inlineStr"/>
-      <c r="R5" s="9" t="inlineStr"/>
-      <c r="S5" s="9" t="inlineStr"/>
-      <c r="T5" s="9" t="inlineStr"/>
+      <c r="L5" s="10" t="inlineStr"/>
+      <c r="M5" s="10" t="inlineStr"/>
+      <c r="N5" s="10" t="inlineStr"/>
+      <c r="O5" s="10" t="inlineStr"/>
+      <c r="P5" s="10" t="inlineStr"/>
+      <c r="Q5" s="10" t="inlineStr"/>
+      <c r="R5" s="10" t="inlineStr"/>
+      <c r="S5" s="10" t="inlineStr"/>
+      <c r="T5" s="10" t="inlineStr"/>
     </row>
     <row r="6" ht="40" customHeight="1">
       <c r="A6" t="inlineStr">
@@ -3940,18 +3938,18 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr"/>
-      <c r="C6" s="9" t="inlineStr"/>
-      <c r="D6" s="9" t="inlineStr"/>
+      <c r="B6" s="10" t="inlineStr"/>
+      <c r="C6" s="10" t="inlineStr"/>
+      <c r="D6" s="10" t="inlineStr"/>
       <c r="E6" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F6" s="9" t="inlineStr"/>
-      <c r="G6" s="9" t="inlineStr"/>
-      <c r="H6" s="9" t="inlineStr"/>
-      <c r="I6" s="9" t="inlineStr"/>
+      <c r="F6" s="10" t="inlineStr"/>
+      <c r="G6" s="10" t="inlineStr"/>
+      <c r="H6" s="10" t="inlineStr"/>
+      <c r="I6" s="10" t="inlineStr"/>
       <c r="J6" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -3962,15 +3960,15 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L6" s="9" t="inlineStr"/>
-      <c r="M6" s="9" t="inlineStr"/>
-      <c r="N6" s="9" t="inlineStr"/>
-      <c r="O6" s="9" t="inlineStr"/>
-      <c r="P6" s="9" t="inlineStr"/>
-      <c r="Q6" s="9" t="inlineStr"/>
-      <c r="R6" s="9" t="inlineStr"/>
-      <c r="S6" s="9" t="inlineStr"/>
-      <c r="T6" s="9" t="inlineStr"/>
+      <c r="L6" s="10" t="inlineStr"/>
+      <c r="M6" s="10" t="inlineStr"/>
+      <c r="N6" s="10" t="inlineStr"/>
+      <c r="O6" s="10" t="inlineStr"/>
+      <c r="P6" s="10" t="inlineStr"/>
+      <c r="Q6" s="10" t="inlineStr"/>
+      <c r="R6" s="10" t="inlineStr"/>
+      <c r="S6" s="10" t="inlineStr"/>
+      <c r="T6" s="10" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4221,301 +4219,301 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
+          <t>CS165 LEC
+room no. :C101
+Dr. Animesh Roy</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="7" t="n"/>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="inlineStr">
+        <is>
+          <t>CS163 LEC
+room no. :C101
+Prof. CB Akki</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="7" t="n"/>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K2" s="9" t="inlineStr">
+        <is>
+          <t>CS163 LAB
+room no. :L106+L107
+Prof. CB Akki</t>
+        </is>
+      </c>
+      <c r="L2" s="6" t="n"/>
+      <c r="M2" s="6" t="n"/>
+      <c r="N2" s="7" t="n"/>
+      <c r="O2" s="10" t="inlineStr"/>
+      <c r="P2" s="11" t="inlineStr">
+        <is>
+          <t>HS204  TUT
+room no. :C101
+Dr. Anusree Kini</t>
+        </is>
+      </c>
+      <c r="Q2" s="7" t="n"/>
+      <c r="R2" s="10" t="inlineStr"/>
+      <c r="S2" s="12" t="inlineStr">
+        <is>
+          <t>B0 Courses
+B0-HS153
+B0-HS153: Dr. Deepak KT (C104)</t>
+        </is>
+      </c>
+      <c r="T2" s="7" t="n"/>
+    </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="13" t="inlineStr">
+        <is>
           <t>B2 Courses
 B2-IIP101
 B2-IIP101: Mr. Ram Subramanian &amp; Mr. Sasi Kumar Sundara Rajan (C204)</t>
         </is>
       </c>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F2" s="9" t="inlineStr"/>
-      <c r="G2" s="9" t="inlineStr"/>
-      <c r="H2" s="9" t="inlineStr"/>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K2" s="10" t="inlineStr">
-        <is>
-          <t>CS163 LAB
-room no. :L106+L107
-Prof. CB Akki</t>
-        </is>
-      </c>
-      <c r="L2" s="6" t="n"/>
-      <c r="M2" s="6" t="n"/>
-      <c r="N2" s="7" t="n"/>
-      <c r="O2" s="9" t="inlineStr"/>
-      <c r="P2" s="11" t="inlineStr">
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="7" t="n"/>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="12" t="inlineStr">
+        <is>
+          <t>B0 Courses
+B0-HS153
+B0-HS153: Dr. Deepak KT (C102)</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="7" t="n"/>
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="11" t="inlineStr">
+        <is>
+          <t>HS204  LEC
+room no. :C101
+Dr. Anusree Kini</t>
+        </is>
+      </c>
+      <c r="L3" s="6" t="n"/>
+      <c r="M3" s="7" t="n"/>
+      <c r="N3" s="10" t="inlineStr"/>
+      <c r="O3" s="10" t="inlineStr"/>
+      <c r="P3" s="10" t="inlineStr"/>
+      <c r="Q3" s="10" t="inlineStr"/>
+      <c r="R3" s="14" t="inlineStr">
+        <is>
+          <t>CS162 LEC
+room no. :C101
+Dr. Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="S3" s="6" t="n"/>
+      <c r="T3" s="7" t="n"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>CS165 LEC
 room no. :C101
 Dr. Animesh Roy</t>
         </is>
       </c>
-      <c r="Q2" s="6" t="n"/>
-      <c r="R2" s="7" t="n"/>
-      <c r="S2" s="9" t="inlineStr"/>
-      <c r="T2" s="9" t="inlineStr"/>
-    </row>
-    <row r="3" ht="40" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>CS165 LEC
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="7" t="n"/>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="10" t="inlineStr"/>
+      <c r="G4" s="10" t="inlineStr"/>
+      <c r="H4" s="10" t="inlineStr"/>
+      <c r="I4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="10" t="inlineStr"/>
+      <c r="L4" s="10" t="inlineStr"/>
+      <c r="M4" s="14" t="inlineStr">
+        <is>
+          <t>CS162 LEC
 room no. :C101
-Dr. Animesh Roy</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="12" t="inlineStr">
+Dr. Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="N4" s="6" t="n"/>
+      <c r="O4" s="7" t="n"/>
+      <c r="P4" s="10" t="inlineStr"/>
+      <c r="Q4" s="15" t="inlineStr">
         <is>
           <t>CS164 LEC
 room no. :C101
 Dr. Prabhu Prasad</t>
         </is>
       </c>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="7" t="n"/>
-      <c r="I3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="13" t="inlineStr">
+      <c r="R4" s="6" t="n"/>
+      <c r="S4" s="7" t="n"/>
+      <c r="T4" s="10" t="inlineStr"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="16" t="inlineStr">
         <is>
           <t>B1 Courses
 B1-IOT101
 B1-IOT101: Dr Jagadeesha Bhat (C201)</t>
         </is>
       </c>
-      <c r="L3" s="6" t="n"/>
-      <c r="M3" s="7" t="n"/>
-      <c r="N3" s="9" t="inlineStr"/>
-      <c r="O3" s="9" t="inlineStr"/>
-      <c r="P3" s="14" t="inlineStr">
-        <is>
-          <t>CS162 LEC
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="14" t="inlineStr">
+        <is>
+          <t>CS162 TUT
 room no. :C101
 Dr. Dibyajyothi</t>
         </is>
       </c>
-      <c r="Q3" s="6" t="n"/>
-      <c r="R3" s="7" t="n"/>
-      <c r="S3" s="9" t="inlineStr"/>
-      <c r="T3" s="9" t="inlineStr"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="9" t="inlineStr"/>
-      <c r="C4" s="9" t="inlineStr"/>
-      <c r="D4" s="9" t="inlineStr"/>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="14" t="inlineStr">
-        <is>
-          <t>CS162 LEC
-room no. :C101
-Dr. Dibyajyothi</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="n"/>
-      <c r="H4" s="7" t="n"/>
-      <c r="I4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="10" t="inlineStr">
+      <c r="G5" s="7" t="n"/>
+      <c r="H5" s="10" t="inlineStr"/>
+      <c r="I5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="13" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-CISM101
+B2-CISM101: Dr Ramesh Athe (C203)</t>
+        </is>
+      </c>
+      <c r="L5" s="6" t="n"/>
+      <c r="M5" s="7" t="n"/>
+      <c r="N5" s="10" t="inlineStr"/>
+      <c r="O5" s="10" t="inlineStr"/>
+      <c r="P5" s="10" t="inlineStr"/>
+      <c r="Q5" s="10" t="inlineStr"/>
+      <c r="R5" s="9" t="inlineStr">
         <is>
           <t>CS163 LEC
 room no. :C101
 Prof. CB Akki</t>
         </is>
       </c>
-      <c r="L4" s="6" t="n"/>
-      <c r="M4" s="7" t="n"/>
-      <c r="N4" s="9" t="inlineStr"/>
-      <c r="O4" s="9" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-CISM101
-B2-CISM101: Dr Ramesh Athe (C203)</t>
-        </is>
-      </c>
-      <c r="Q4" s="6" t="n"/>
-      <c r="R4" s="7" t="n"/>
-      <c r="S4" s="9" t="inlineStr"/>
-      <c r="T4" s="9" t="inlineStr"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="S5" s="6" t="n"/>
+      <c r="T5" s="7" t="n"/>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="10" t="inlineStr"/>
+      <c r="C6" s="10" t="inlineStr"/>
+      <c r="D6" s="10" t="inlineStr"/>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="13" t="inlineStr">
         <is>
           <t>B2 Courses
 B2-CC101
 B2-CC101: Dr. Pramod Yelmewad (C202)</t>
         </is>
       </c>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="15" t="inlineStr">
-        <is>
-          <t>B0 Courses
-B0-HS153
-B0-HS153: Dr. Deepak KT (C104)</t>
-        </is>
-      </c>
-      <c r="G5" s="7" t="n"/>
-      <c r="H5" s="9" t="inlineStr"/>
-      <c r="I5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="12" t="inlineStr">
+      <c r="G6" s="6" t="n"/>
+      <c r="H6" s="7" t="n"/>
+      <c r="I6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="15" t="inlineStr">
+        <is>
+          <t>CS164 LEC
+room no. :C101
+Dr. Prabhu Prasad</t>
+        </is>
+      </c>
+      <c r="L6" s="6" t="n"/>
+      <c r="M6" s="7" t="n"/>
+      <c r="N6" s="15" t="inlineStr">
         <is>
           <t>CS164 LAB
 room no. :L106+L107
 Dr. Prabhu Prasad</t>
         </is>
       </c>
-      <c r="L5" s="6" t="n"/>
-      <c r="M5" s="6" t="n"/>
-      <c r="N5" s="7" t="n"/>
-      <c r="O5" s="9" t="inlineStr"/>
-      <c r="P5" s="9" t="inlineStr"/>
-      <c r="Q5" s="16" t="inlineStr">
-        <is>
-          <t>HS204  LEC
-room no. :C101
-Dr. Anusree Kini</t>
-        </is>
-      </c>
-      <c r="R5" s="6" t="n"/>
-      <c r="S5" s="7" t="n"/>
-      <c r="T5" s="9" t="inlineStr"/>
-    </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="inlineStr"/>
-      <c r="C6" s="14" t="inlineStr">
-        <is>
-          <t>CS162 TUT
-room no. :C101
-Dr. Dibyajyothi</t>
-        </is>
-      </c>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="15" t="inlineStr">
-        <is>
-          <t>B0 Courses
-B0-HS153
-B0-HS153: Dr. Deepak KT (C102)</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="7" t="n"/>
-      <c r="I6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K6" s="16" t="inlineStr">
-        <is>
-          <t>HS204  TUT
-room no. :C101
-Dr. Anusree Kini</t>
-        </is>
-      </c>
-      <c r="L6" s="7" t="n"/>
-      <c r="M6" s="12" t="inlineStr">
-        <is>
-          <t>CS164 LEC
-room no. :C101
-Dr. Prabhu Prasad</t>
-        </is>
-      </c>
-      <c r="N6" s="6" t="n"/>
-      <c r="O6" s="7" t="n"/>
-      <c r="P6" s="9" t="inlineStr"/>
-      <c r="Q6" s="9" t="inlineStr"/>
-      <c r="R6" s="10" t="inlineStr">
-        <is>
-          <t>CS163 LEC
-room no. :C101
-Prof. CB Akki</t>
-        </is>
-      </c>
-      <c r="S6" s="6" t="n"/>
-      <c r="T6" s="7" t="n"/>
+      <c r="O6" s="6" t="n"/>
+      <c r="P6" s="6" t="n"/>
+      <c r="Q6" s="7" t="n"/>
+      <c r="R6" s="10" t="inlineStr"/>
+      <c r="S6" s="10" t="inlineStr"/>
+      <c r="T6" s="10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="17" t="inlineStr">
@@ -4582,7 +4580,7 @@
       </c>
       <c r="F14" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
         </is>
       </c>
     </row>
@@ -4612,7 +4610,7 @@
       </c>
       <c r="F15" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
         </is>
       </c>
     </row>
@@ -4928,25 +4926,25 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="P4:R4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F6:H6"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="R6:T6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5096,303 +5094,305 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="9" t="inlineStr"/>
-      <c r="C2" s="9" t="inlineStr"/>
-      <c r="D2" s="9" t="inlineStr"/>
+      <c r="B2" s="13" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-IIP101
+B2-IIP101: Mr. Ram Subramanian &amp; Mr. Sasi Kumar Sundara Rajan (L305)</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="7" t="n"/>
       <c r="E2" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
       <c r="F2" s="11" t="inlineStr">
+        <is>
+          <t>HS204  LEC
+room no. :C102
+Dr. Anusree Kini</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="7" t="n"/>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K2" s="10" t="inlineStr"/>
+      <c r="L2" s="10" t="inlineStr"/>
+      <c r="M2" s="9" t="inlineStr">
+        <is>
+          <t>CS163 LEC
+room no. :C101
+Dr. Suvadip Hazra</t>
+        </is>
+      </c>
+      <c r="N2" s="6" t="n"/>
+      <c r="O2" s="7" t="n"/>
+      <c r="P2" s="10" t="inlineStr"/>
+      <c r="Q2" s="10" t="inlineStr"/>
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>CS165 LEC
 room no. :C101
 Dr. Animesh Roy</t>
         </is>
       </c>
-      <c r="G2" s="6" t="n"/>
-      <c r="H2" s="7" t="n"/>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K2" s="9" t="inlineStr"/>
-      <c r="L2" s="9" t="inlineStr"/>
-      <c r="M2" s="14" t="inlineStr">
+      <c r="S2" s="6" t="n"/>
+      <c r="T2" s="7" t="n"/>
+    </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>B0 Courses
+B0-HS153
+B0-HS153: Dr. Deepak KT (C205)</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="7" t="n"/>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="15" t="inlineStr">
+        <is>
+          <t>CS164 LEC
+room no. :C101
+Prof. CB Akki</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="7" t="n"/>
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="10" t="inlineStr"/>
+      <c r="L3" s="10" t="inlineStr"/>
+      <c r="M3" s="10" t="inlineStr"/>
+      <c r="N3" s="14" t="inlineStr">
         <is>
           <t>CS162 LEC
 room no. :C101
 Dr. Dibyajyothi</t>
         </is>
       </c>
-      <c r="N2" s="6" t="n"/>
-      <c r="O2" s="7" t="n"/>
-      <c r="P2" s="9" t="inlineStr"/>
-      <c r="Q2" s="12" t="inlineStr">
+      <c r="O3" s="6" t="n"/>
+      <c r="P3" s="7" t="n"/>
+      <c r="Q3" s="10" t="inlineStr"/>
+      <c r="R3" s="10" t="inlineStr"/>
+      <c r="S3" s="11" t="inlineStr">
+        <is>
+          <t>HS204  TUT
+room no. :C102
+Dr. Anusree Kini</t>
+        </is>
+      </c>
+      <c r="T3" s="7" t="n"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="13" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-CC101, B2-CISM101
+B2-CC101: Dr. Pramod Yelmewad (L303)
+B2-CISM101: Dr Ramesh Athe (L304)</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="7" t="n"/>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="14" t="inlineStr">
+        <is>
+          <t>CS162 TUT
+room no. :C101
+Dr. Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="G4" s="7" t="n"/>
+      <c r="H4" s="10" t="inlineStr"/>
+      <c r="I4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="13" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-CC101, B2-CISM101
+B2-CC101: Dr. Pramod Yelmewad (L303)
+B2-CISM101: Dr Ramesh Athe (L304)</t>
+        </is>
+      </c>
+      <c r="L4" s="6" t="n"/>
+      <c r="M4" s="7" t="n"/>
+      <c r="N4" s="10" t="inlineStr"/>
+      <c r="O4" s="10" t="inlineStr"/>
+      <c r="P4" s="10" t="inlineStr"/>
+      <c r="Q4" s="15" t="inlineStr">
         <is>
           <t>CS164 LEC
 room no. :C102
 Prof. CB Akki</t>
         </is>
       </c>
-      <c r="R2" s="6" t="n"/>
-      <c r="S2" s="7" t="n"/>
-      <c r="T2" s="9" t="inlineStr"/>
-    </row>
-    <row r="3" ht="40" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-IIP101
-B2-IIP101: Mr. Ram Subramanian &amp; Mr. Sasi Kumar Sundara Rajan (L305)</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="inlineStr"/>
-      <c r="G3" s="15" t="inlineStr">
+      <c r="R4" s="6" t="n"/>
+      <c r="S4" s="7" t="n"/>
+      <c r="T4" s="10" t="inlineStr"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>CS165 LEC
+room no. :C101
+Dr. Animesh Roy</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="inlineStr"/>
+      <c r="G5" s="10" t="inlineStr"/>
+      <c r="H5" s="10" t="inlineStr"/>
+      <c r="I5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="15" t="inlineStr">
+        <is>
+          <t>CS164 LAB
+room no. :L106+L107
+Prof. CB Akki</t>
+        </is>
+      </c>
+      <c r="L5" s="6" t="n"/>
+      <c r="M5" s="6" t="n"/>
+      <c r="N5" s="7" t="n"/>
+      <c r="O5" s="10" t="inlineStr"/>
+      <c r="P5" s="14" t="inlineStr">
+        <is>
+          <t>CS162 LEC
+room no. :C102
+Dr. Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="Q5" s="6" t="n"/>
+      <c r="R5" s="7" t="n"/>
+      <c r="S5" s="10" t="inlineStr"/>
+      <c r="T5" s="10" t="inlineStr"/>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="16" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-IOT101
+B1-IOT101: Dr Jagadeesha Bhat (L302)</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="inlineStr">
         <is>
           <t>B0 Courses
 B0-HS153
 B0-HS153: Dr. Deepak KT (L301)</t>
         </is>
       </c>
-      <c r="H3" s="7" t="n"/>
-      <c r="I3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="12" t="inlineStr">
-        <is>
-          <t>CS164 LAB
-room no. :L106+L107
-Prof. CB Akki</t>
-        </is>
-      </c>
-      <c r="L3" s="6" t="n"/>
-      <c r="M3" s="6" t="n"/>
-      <c r="N3" s="7" t="n"/>
-      <c r="O3" s="9" t="inlineStr"/>
-      <c r="P3" s="9" t="inlineStr"/>
-      <c r="Q3" s="10" t="inlineStr">
+      <c r="G6" s="7" t="n"/>
+      <c r="H6" s="10" t="inlineStr"/>
+      <c r="I6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="9" t="inlineStr">
         <is>
           <t>CS163 LEC
 room no. :C102
 Dr. Suvadip Hazra</t>
         </is>
       </c>
-      <c r="R3" s="6" t="n"/>
-      <c r="S3" s="7" t="n"/>
-      <c r="T3" s="9" t="inlineStr"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-CC101
-B2-CC101: Dr. Pramod Yelmewad (L303)</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="15" t="inlineStr">
-        <is>
-          <t>B0 Courses
-B0-HS153
-B0-HS153: Dr. Deepak KT (C205)</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="n"/>
-      <c r="H4" s="7" t="n"/>
-      <c r="I4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="10" t="inlineStr">
-        <is>
-          <t>CS163 LAB
-room no. :L106+L107
-Dr. Suvadip Hazra</t>
-        </is>
-      </c>
-      <c r="L4" s="6" t="n"/>
-      <c r="M4" s="6" t="n"/>
-      <c r="N4" s="7" t="n"/>
-      <c r="O4" s="9" t="inlineStr"/>
-      <c r="P4" s="16" t="inlineStr">
-        <is>
-          <t>HS204  LEC
-room no. :C101
-Dr. Anusree Kini</t>
-        </is>
-      </c>
-      <c r="Q4" s="6" t="n"/>
-      <c r="R4" s="7" t="n"/>
-      <c r="S4" s="9" t="inlineStr"/>
-      <c r="T4" s="9" t="inlineStr"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="9" t="inlineStr"/>
-      <c r="C5" s="14" t="inlineStr">
-        <is>
-          <t>CS162 TUT
-room no. :C101
-Dr. Dibyajyothi</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="13" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-IOT101
-B1-IOT101: Dr Jagadeesha Bhat (L302)</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="9" t="inlineStr"/>
-      <c r="L5" s="16" t="inlineStr">
-        <is>
-          <t>HS204  TUT
-room no. :C101
-Dr. Anusree Kini</t>
-        </is>
-      </c>
-      <c r="M5" s="7" t="n"/>
-      <c r="N5" s="9" t="inlineStr"/>
-      <c r="O5" s="10" t="inlineStr">
-        <is>
-          <t>CS163 LEC
-room no. :C102
-Dr. Suvadip Hazra</t>
-        </is>
-      </c>
-      <c r="P5" s="6" t="n"/>
-      <c r="Q5" s="7" t="n"/>
-      <c r="R5" s="9" t="inlineStr"/>
-      <c r="S5" s="9" t="inlineStr"/>
-      <c r="T5" s="9" t="inlineStr"/>
-    </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-CISM101
-B2-CISM101: Dr Ramesh Athe (L304)</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="11" t="inlineStr">
-        <is>
-          <t>CS165 LEC
-room no. :C101
-Dr. Animesh Roy</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="7" t="n"/>
-      <c r="I6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K6" s="14" t="inlineStr">
-        <is>
-          <t>CS162 LEC
-room no. :C102
-Dr. Dibyajyothi</t>
-        </is>
-      </c>
       <c r="L6" s="6" t="n"/>
       <c r="M6" s="7" t="n"/>
-      <c r="N6" s="9" t="inlineStr"/>
-      <c r="O6" s="12" t="inlineStr">
-        <is>
-          <t>CS164 LEC
-room no. :C102
-Prof. CB Akki</t>
-        </is>
-      </c>
+      <c r="N6" s="9" t="inlineStr">
+        <is>
+          <t>CS163 LAB
+room no. :L206+L207
+Dr. Suvadip Hazra</t>
+        </is>
+      </c>
+      <c r="O6" s="6" t="n"/>
       <c r="P6" s="6" t="n"/>
       <c r="Q6" s="7" t="n"/>
-      <c r="R6" s="9" t="inlineStr"/>
-      <c r="S6" s="9" t="inlineStr"/>
-      <c r="T6" s="9" t="inlineStr"/>
+      <c r="R6" s="10" t="inlineStr"/>
+      <c r="S6" s="10" t="inlineStr"/>
+      <c r="T6" s="10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="17" t="inlineStr">
@@ -5436,17 +5436,17 @@
     <row r="14">
       <c r="A14" s="19" t="inlineStr">
         <is>
-          <t>B1-ASD151</t>
+          <t>B1-HS151</t>
         </is>
       </c>
       <c r="B14" s="19" t="inlineStr">
         <is>
-          <t>Introduction to Design</t>
+          <t>Introduction to Personal Finance</t>
         </is>
       </c>
       <c r="C14" s="19" t="inlineStr">
         <is>
-          <t>Dr. Sandesh P</t>
+          <t>Dr. Siddharth</t>
         </is>
       </c>
       <c r="D14" s="19" t="inlineStr">
@@ -5459,24 +5459,24 @@
       </c>
       <c r="F14" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="19" t="inlineStr">
         <is>
-          <t>B1-HS151</t>
+          <t>B1-ASD151</t>
         </is>
       </c>
       <c r="B15" s="19" t="inlineStr">
         <is>
-          <t>Introduction to Personal Finance</t>
+          <t>Introduction to Design</t>
         </is>
       </c>
       <c r="C15" s="19" t="inlineStr">
         <is>
-          <t>Dr. Siddharth</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="D15" s="19" t="inlineStr">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="F15" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
         </is>
       </c>
     </row>
@@ -5805,25 +5805,25 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="Q3:S3"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="M2:O2"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5973,297 +5973,297 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="11" t="inlineStr">
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>HS205 LEC
+room no. :C102
+Dr. Jolly Thomas, IIT Dharwad</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="7" t="n"/>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F2" s="10" t="inlineStr"/>
+      <c r="G2" s="11" t="inlineStr">
+        <is>
+          <t>CS301 LEC
+room no. :C104
+Dr. Vivekraj</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="n"/>
+      <c r="I2" s="7" t="n"/>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L2" s="10" t="inlineStr"/>
+      <c r="M2" s="5" t="inlineStr">
+        <is>
+          <t>CS206 LEC
+room no. :C102
+Dr. Pavan</t>
+        </is>
+      </c>
+      <c r="N2" s="6" t="n"/>
+      <c r="O2" s="7" t="n"/>
+      <c r="P2" s="10" t="inlineStr"/>
+      <c r="Q2" s="10" t="inlineStr"/>
+      <c r="R2" s="14" t="inlineStr">
+        <is>
+          <t>MA202 LEC
+room no. :C102
+Dr. Anand Barangi</t>
+        </is>
+      </c>
+      <c r="S2" s="6" t="n"/>
+      <c r="T2" s="7" t="n"/>
+    </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="inlineStr"/>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>CS301 TUT
+room no. :C101
+Dr. Vivekraj</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="n"/>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="10" t="inlineStr"/>
+      <c r="G3" s="15" t="inlineStr">
+        <is>
+          <t>CS310 LEC
+room no. :C104
+Dr. Pramod Yelmewad</t>
+        </is>
+      </c>
+      <c r="H3" s="6" t="n"/>
+      <c r="I3" s="7" t="n"/>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="10" t="inlineStr"/>
+      <c r="M3" s="5" t="inlineStr">
+        <is>
+          <t>CS206 TUT
+room no. :C102
+Dr. Pavan</t>
+        </is>
+      </c>
+      <c r="N3" s="7" t="n"/>
+      <c r="O3" s="10" t="inlineStr"/>
+      <c r="P3" s="10" t="inlineStr"/>
+      <c r="Q3" s="10" t="inlineStr"/>
+      <c r="R3" s="14" t="inlineStr">
+        <is>
+          <t>MA202 TUT
+room no. :C104
+Dr. Anand Barangi</t>
+        </is>
+      </c>
+      <c r="S3" s="7" t="n"/>
+      <c r="T3" s="10" t="inlineStr"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>CS301 LEC
+room no. :C102
+Dr. Vivekraj</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="7" t="n"/>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="10" t="inlineStr"/>
+      <c r="G4" s="14" t="inlineStr">
+        <is>
+          <t>MA202 LEC
+room no. :C102
+Dr. Anand Barangi</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="n"/>
+      <c r="I4" s="7" t="n"/>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="10" t="inlineStr"/>
+      <c r="M4" s="10" t="inlineStr"/>
+      <c r="N4" s="10" t="inlineStr"/>
+      <c r="O4" s="10" t="inlineStr"/>
+      <c r="P4" s="15" t="inlineStr">
+        <is>
+          <t>CS310 TUT
+room no. :C104
+Dr. Pramod Yelmewad</t>
+        </is>
+      </c>
+      <c r="Q4" s="7" t="n"/>
+      <c r="R4" s="10" t="inlineStr"/>
+      <c r="S4" s="10" t="inlineStr"/>
+      <c r="T4" s="10" t="inlineStr"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>CS204 LEC
+room no. :C102
+Dr. Suvadip Hazra</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>CS204 LAB
+room no. :L106+L107
+Dr. Suvadip Hazra</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="6" t="n"/>
+      <c r="I5" s="7" t="n"/>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="9" t="inlineStr">
+        <is>
+          <t>CS204 LEC
+room no. :C101
+Dr. Suvadip Hazra</t>
+        </is>
+      </c>
+      <c r="M5" s="6" t="n"/>
+      <c r="N5" s="7" t="n"/>
+      <c r="O5" s="15" t="inlineStr">
+        <is>
+          <t>CS310 LAB
+room no. :L106+L107
+Dr. Pramod Yelmewad</t>
+        </is>
+      </c>
+      <c r="P5" s="6" t="n"/>
+      <c r="Q5" s="6" t="n"/>
+      <c r="R5" s="7" t="n"/>
+      <c r="S5" s="10" t="inlineStr"/>
+      <c r="T5" s="10" t="inlineStr"/>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="15" t="inlineStr">
+        <is>
+          <t>CS310 LEC
+room no. :C101
+Dr. Pramod Yelmewad</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="10" t="inlineStr"/>
+      <c r="G6" s="12" t="inlineStr">
+        <is>
+          <t>HS205 LEC
+room no. :C101
+Dr. Jolly Thomas, IIT Dharwad</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="n"/>
+      <c r="I6" s="7" t="n"/>
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L6" s="10" t="inlineStr"/>
+      <c r="M6" s="10" t="inlineStr"/>
+      <c r="N6" s="10" t="inlineStr"/>
+      <c r="O6" s="10" t="inlineStr"/>
+      <c r="P6" s="5" t="inlineStr">
         <is>
           <t>CS206 LEC
 room no. :C101
 Dr. Pavan</t>
         </is>
       </c>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F2" s="9" t="inlineStr"/>
-      <c r="G2" s="9" t="inlineStr"/>
-      <c r="H2" s="9" t="inlineStr"/>
-      <c r="I2" s="9" t="inlineStr"/>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L2" s="9" t="inlineStr"/>
-      <c r="M2" s="10" t="inlineStr">
-        <is>
-          <t>CS204 LEC
-room no. :C102
-Dr. Suvadip Hazra</t>
-        </is>
-      </c>
-      <c r="N2" s="6" t="n"/>
-      <c r="O2" s="7" t="n"/>
-      <c r="P2" s="9" t="inlineStr"/>
-      <c r="Q2" s="16" t="inlineStr">
-        <is>
-          <t>CS301 LEC
-room no. :C104
-Dr. Vivekraj</t>
-        </is>
-      </c>
-      <c r="R2" s="6" t="n"/>
-      <c r="S2" s="7" t="n"/>
-      <c r="T2" s="9" t="inlineStr"/>
-    </row>
-    <row r="3" ht="40" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B3" s="9" t="inlineStr"/>
-      <c r="C3" s="9" t="inlineStr"/>
-      <c r="D3" s="9" t="inlineStr"/>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="inlineStr"/>
-      <c r="G3" s="16" t="inlineStr">
-        <is>
-          <t>CS301 TUT
-room no. :C102
-Dr. Vivekraj</t>
-        </is>
-      </c>
-      <c r="H3" s="7" t="n"/>
-      <c r="I3" s="9" t="inlineStr"/>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr"/>
-      <c r="M3" s="9" t="inlineStr"/>
-      <c r="N3" s="9" t="inlineStr"/>
-      <c r="O3" s="12" t="inlineStr">
-        <is>
-          <t>CS310 LEC
-room no. :C104
-Dr. Pramod Yelmewad</t>
-        </is>
-      </c>
-      <c r="P3" s="6" t="n"/>
-      <c r="Q3" s="7" t="n"/>
-      <c r="R3" s="9" t="inlineStr"/>
-      <c r="S3" s="9" t="inlineStr"/>
-      <c r="T3" s="9" t="inlineStr"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="14" t="inlineStr">
-        <is>
-          <t>MA202 LEC
-room no. :C101
-Dr. Anand Barangi</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="10" t="inlineStr">
-        <is>
-          <t>CS204 LAB
-room no. :L106+L107
-Dr. Suvadip Hazra</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="n"/>
-      <c r="H4" s="6" t="n"/>
-      <c r="I4" s="7" t="n"/>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L4" s="11" t="inlineStr">
-        <is>
-          <t>CS206 TUT
-room no. :C102
-Dr. Pavan</t>
-        </is>
-      </c>
-      <c r="M4" s="7" t="n"/>
-      <c r="N4" s="12" t="inlineStr">
-        <is>
-          <t>CS310 TUT
-room no. :C101
-Dr. Pramod Yelmewad</t>
-        </is>
-      </c>
-      <c r="O4" s="7" t="n"/>
-      <c r="P4" s="9" t="inlineStr"/>
-      <c r="Q4" s="9" t="inlineStr"/>
-      <c r="R4" s="15" t="inlineStr">
-        <is>
-          <t>HS205 LEC
-room no. :C102
-Dr. Jolly Thomas, IIT Dharwad</t>
-        </is>
-      </c>
-      <c r="S4" s="6" t="n"/>
-      <c r="T4" s="7" t="n"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="inlineStr">
-        <is>
-          <t>CS204 LEC
-room no. :C102
-Dr. Suvadip Hazra</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="11" t="inlineStr">
-        <is>
-          <t>CS206 LEC
-room no. :C101
-Dr. Pavan</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="9" t="inlineStr"/>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="9" t="inlineStr"/>
-      <c r="M5" s="15" t="inlineStr">
-        <is>
-          <t>HS205 LEC
-room no. :C104
-Dr. Jolly Thomas, IIT Dharwad</t>
-        </is>
-      </c>
-      <c r="N5" s="6" t="n"/>
-      <c r="O5" s="7" t="n"/>
-      <c r="P5" s="9" t="inlineStr"/>
-      <c r="Q5" s="9" t="inlineStr"/>
-      <c r="R5" s="16" t="inlineStr">
-        <is>
-          <t>CS301 LEC
-room no. :C102
-Dr. Vivekraj</t>
-        </is>
-      </c>
-      <c r="S5" s="6" t="n"/>
-      <c r="T5" s="7" t="n"/>
-    </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B6" s="14" t="inlineStr">
-        <is>
-          <t>MA202 LEC
-room no. :C102
-Dr. Anand Barangi</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="12" t="inlineStr">
-        <is>
-          <t>CS310 LAB
-room no. :L106+L107
-Dr. Pramod Yelmewad</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="6" t="n"/>
-      <c r="I6" s="7" t="n"/>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L6" s="9" t="inlineStr"/>
-      <c r="M6" s="14" t="inlineStr">
-        <is>
-          <t>MA202 TUT
-room no. :C104
-Dr. Anand Barangi</t>
-        </is>
-      </c>
-      <c r="N6" s="7" t="n"/>
-      <c r="O6" s="9" t="inlineStr"/>
-      <c r="P6" s="9" t="inlineStr"/>
-      <c r="Q6" s="12" t="inlineStr">
-        <is>
-          <t>CS310 LEC
-room no. :C104
-Dr. Pramod Yelmewad</t>
-        </is>
-      </c>
-      <c r="R6" s="6" t="n"/>
-      <c r="S6" s="7" t="n"/>
-      <c r="T6" s="9" t="inlineStr"/>
+      <c r="Q6" s="6" t="n"/>
+      <c r="R6" s="7" t="n"/>
+      <c r="S6" s="10" t="inlineStr"/>
+      <c r="T6" s="10" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="20" t="inlineStr">
@@ -6439,24 +6439,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="N4:O4"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="G3:H3"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="Q6:S6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6468,7 +6468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6606,351 +6606,364 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="13" t="inlineStr">
+      <c r="B2" s="16" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-CS471, B1-abc002
+B1-CS471: Chinmayanand (L402)
+B1-abc002: Dr. Krishnendu (C202)</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="7" t="n"/>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="inlineStr">
+        <is>
+          <t>CS307 LAB
+room no. :L106+L107
+Dr. Girish GN</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="6" t="n"/>
+      <c r="I2" s="7" t="n"/>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L2" s="13" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-abc006, B2-abc010
+B2-abc006: Dr. Jagadeesha R Bhat (L402)
+B2-abc010: Dr. Sandesh P (C203)</t>
+        </is>
+      </c>
+      <c r="M2" s="7" t="n"/>
+      <c r="N2" s="13" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-abc006, B2-abc010
+B2-abc006: Dr. Jagadeesha R Bhat (L402)
+B2-abc010: Dr. Sandesh P (C203)</t>
+        </is>
+      </c>
+      <c r="O2" s="7" t="n"/>
+      <c r="P2" s="16" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-CS471, B1-abc002
+B1-CS471: Chinmayanand (L402)
+B1-abc002: Dr. Krishnendu (C202)</t>
+        </is>
+      </c>
+      <c r="Q2" s="6" t="n"/>
+      <c r="R2" s="7" t="n"/>
+      <c r="S2" s="16" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-abc002
+B1-abc002: Dr. Krishnendu (C203)</t>
+        </is>
+      </c>
+      <c r="T2" s="7" t="n"/>
+    </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="13" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-abc007
+B2-abc007: Dr. Pavan (L403)</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="7" t="n"/>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="31" t="inlineStr">
+        <is>
+          <t>B4 Courses
+B4-abc013
+B4-abc013: Dr. Sunil CK (L402)</t>
+        </is>
+      </c>
+      <c r="G3" s="7" t="n"/>
+      <c r="H3" s="16" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-CS471
+B1-CS471: Chinmayanand (L403)</t>
+        </is>
+      </c>
+      <c r="I3" s="7" t="n"/>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="32" t="inlineStr">
+        <is>
+          <t>B3 Courses
+B3-CS462
+B3-CS462: Dr. Vivekraj V K (L304)</t>
+        </is>
+      </c>
+      <c r="M3" s="7" t="n"/>
+      <c r="N3" s="9" t="inlineStr">
+        <is>
+          <t>CS307 LEC
+room no. :C104
+Dr. Girish GN</t>
+        </is>
+      </c>
+      <c r="O3" s="6" t="n"/>
+      <c r="P3" s="7" t="n"/>
+      <c r="Q3" s="10" t="inlineStr"/>
+      <c r="R3" s="16" t="inlineStr">
         <is>
           <t>B1 Courses
 B1-abc003
 B1-abc003: Prof. SRM Prasanna (C205)</t>
         </is>
       </c>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F2" s="10" t="inlineStr">
+      <c r="S3" s="6" t="n"/>
+      <c r="T3" s="7" t="n"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="inlineStr"/>
+      <c r="C4" s="16" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-abc001
+B1-abc001: Dr. Sunil S (L403)</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="n"/>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="16" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-abc001, B1-abc002
+B1-abc001: Dr. Sunil S (L404)
+B1-abc002: Dr. Krishnendu (C201)</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="7" t="n"/>
+      <c r="I4" s="10" t="inlineStr"/>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="10" t="inlineStr"/>
+      <c r="M4" s="9" t="inlineStr">
         <is>
           <t>CS307 LEC
 room no. :C102
 Dr. Girish GN</t>
         </is>
       </c>
-      <c r="G2" s="6" t="n"/>
-      <c r="H2" s="7" t="n"/>
-      <c r="I2" s="9" t="inlineStr"/>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L2" s="13" t="inlineStr">
+      <c r="N4" s="6" t="n"/>
+      <c r="O4" s="7" t="n"/>
+      <c r="P4" s="13" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-abc005
+B2-abc005: Dr. Rajendra H (L304)</t>
+        </is>
+      </c>
+      <c r="Q4" s="7" t="n"/>
+      <c r="R4" s="16" t="inlineStr">
         <is>
           <t>B1 Courses
-B1-abc003
-B1-abc003: Prof. SRM Prasanna (C205)</t>
-        </is>
-      </c>
-      <c r="M2" s="6" t="n"/>
-      <c r="N2" s="7" t="n"/>
-      <c r="O2" s="9" t="inlineStr"/>
-      <c r="P2" s="5" t="inlineStr">
+B1-abc001, B1-abc002
+B1-abc001: Dr. Sunil S (L404)
+B1-abc002: Dr. Krishnendu (C201)</t>
+        </is>
+      </c>
+      <c r="S4" s="6" t="n"/>
+      <c r="T4" s="7" t="n"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="13" t="inlineStr">
         <is>
           <t>B2 Courses
-B2-abc010
-B2-abc010: Dr. Sandesh P (L404)</t>
-        </is>
-      </c>
-      <c r="Q2" s="7" t="n"/>
-      <c r="R2" s="9" t="inlineStr"/>
-      <c r="S2" s="13" t="inlineStr">
+B2-abc005, B2-abc007
+B2-abc005: Dr. Rajendra H (L303)
+B2-abc007: Dr. Pavan (L404)</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="13" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-abc005, B2-abc007
+B2-abc005: Dr. Rajendra H (L303)
+B2-abc007: Dr. Pavan (L404)</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="7" t="n"/>
+      <c r="I5" s="10" t="inlineStr"/>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="16" t="inlineStr">
         <is>
           <t>B1 Courses
-B1-abc001
-B1-abc001: Dr. Sunil S (L403)</t>
-        </is>
-      </c>
-      <c r="T2" s="7" t="n"/>
-    </row>
-    <row r="3" ht="40" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B3" s="13" t="inlineStr">
+B1-CS471, B1-abc001
+B1-CS471: Chinmayanand (L401)
+B1-abc001: Dr. Sunil S (L301)</t>
+        </is>
+      </c>
+      <c r="M5" s="6" t="n"/>
+      <c r="N5" s="7" t="n"/>
+      <c r="O5" s="10" t="inlineStr"/>
+      <c r="P5" s="16" t="inlineStr">
         <is>
           <t>B1 Courses
-B1-CS471, B1-abc002
-B1-CS471: Chinmayanand (L402)
-B1-abc002: Dr. Krishnendu (C201)</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="10" t="inlineStr">
-        <is>
-          <t>CS307 LAB
-room no. :L106+L107
-Dr. Girish GN</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="6" t="n"/>
-      <c r="I3" s="7" t="n"/>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="31" t="inlineStr">
+B1-CS471, B1-abc001
+B1-CS471: Chinmayanand (L401)
+B1-abc001: Dr. Sunil S (L301)</t>
+        </is>
+      </c>
+      <c r="Q5" s="6" t="n"/>
+      <c r="R5" s="7" t="n"/>
+      <c r="S5" s="32" t="inlineStr">
         <is>
           <t>B3 Courses
-B3-CS462
-B3-CS462: Dr. Vivekraj V K (C203)</t>
-        </is>
-      </c>
-      <c r="M3" s="7" t="n"/>
-      <c r="N3" s="13" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-CS471, B1-abc002
-B1-CS471: Chinmayanand (L402)
-B1-abc002: Dr. Krishnendu (C201)</t>
-        </is>
-      </c>
-      <c r="O3" s="6" t="n"/>
-      <c r="P3" s="7" t="n"/>
-      <c r="Q3" s="9" t="inlineStr"/>
-      <c r="R3" s="10" t="inlineStr">
-        <is>
-          <t>CS307 LEC
-room no. :C104
-Dr. Girish GN</t>
-        </is>
-      </c>
-      <c r="S3" s="6" t="n"/>
-      <c r="T3" s="7" t="n"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
+B3-abc012
+B3-abc012: Dr. Somen (L301)</t>
+        </is>
+      </c>
+      <c r="T5" s="7" t="n"/>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="13" t="inlineStr">
         <is>
           <t>B2 Courses
 B2-abc005, B2-abc006
 B2-abc005: Dr. Rajendra H (L302)
-B2-abc006: Dr. Jagadeesha R Bhat (L304)</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="9" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr">
+B2-abc006: Dr. Jagadeesha R Bhat (L401)</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="10" t="inlineStr"/>
+      <c r="G6" s="16" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-abc003
+B1-abc003: Prof. SRM Prasanna (C204)</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="n"/>
+      <c r="I6" s="7" t="n"/>
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L6" s="13" t="inlineStr">
         <is>
           <t>B2 Courses
 B2-abc005, B2-abc006
 B2-abc005: Dr. Rajendra H (L302)
-B2-abc006: Dr. Jagadeesha R Bhat (L304)</t>
-        </is>
-      </c>
-      <c r="H4" s="6" t="n"/>
-      <c r="I4" s="7" t="n"/>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L4" s="13" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-abc002
-B1-abc002: Dr. Krishnendu (C203)</t>
-        </is>
-      </c>
-      <c r="M4" s="7" t="n"/>
-      <c r="N4" s="31" t="inlineStr">
-        <is>
-          <t>B3 Courses
-B3-abc012
-B3-abc012: Dr. Somen (L403)</t>
-        </is>
-      </c>
-      <c r="O4" s="7" t="n"/>
-      <c r="P4" s="32" t="inlineStr">
+B2-abc006: Dr. Jagadeesha R Bhat (L401)</t>
+        </is>
+      </c>
+      <c r="M6" s="6" t="n"/>
+      <c r="N6" s="7" t="n"/>
+      <c r="O6" s="31" t="inlineStr">
         <is>
           <t>B4 Courses
 B4-abc014
-B4-abc014: Dr. Ramesh Athe (L305)</t>
-        </is>
-      </c>
-      <c r="Q4" s="7" t="n"/>
-      <c r="R4" s="13" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-CS471
-B1-CS471: Chinmayanand (L401)</t>
-        </is>
-      </c>
-      <c r="S4" s="6" t="n"/>
-      <c r="T4" s="7" t="n"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
+B4-abc014: Dr. Ramesh Athe (C201)</t>
+        </is>
+      </c>
+      <c r="P6" s="7" t="n"/>
+      <c r="Q6" s="13" t="inlineStr">
         <is>
           <t>B2 Courses
-B2-abc006
-B2-abc006: Dr. Jagadeesha R Bhat (L402)</t>
-        </is>
-      </c>
-      <c r="C5" s="7" t="n"/>
-      <c r="D5" s="9" t="inlineStr"/>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-abc005
-B2-abc005: Dr. Rajendra H (L303)</t>
-        </is>
-      </c>
-      <c r="H5" s="6" t="n"/>
-      <c r="I5" s="7" t="n"/>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="9" t="inlineStr"/>
-      <c r="M5" s="13" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-abc001
-B1-abc001: Dr. Sunil S (L301)</t>
-        </is>
-      </c>
-      <c r="N5" s="6" t="n"/>
-      <c r="O5" s="7" t="n"/>
-      <c r="P5" s="9" t="inlineStr"/>
-      <c r="Q5" s="32" t="inlineStr">
-        <is>
-          <t>B4 Courses
-B4-abc013
-B4-abc013: Dr. Sunil CK (L301)</t>
-        </is>
-      </c>
-      <c r="R5" s="7" t="n"/>
-      <c r="S5" s="13" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-CS471
-B1-CS471: Chinmayanand (L403)</t>
-        </is>
-      </c>
-      <c r="T5" s="7" t="n"/>
-    </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-abc005
-B2-abc005: Dr. Rajendra H (L305)</t>
-        </is>
-      </c>
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="9" t="inlineStr"/>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="inlineStr"/>
-      <c r="G6" s="13" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-abc001, B1-abc002
-B1-abc001: Dr. Sunil S (L404)
-B1-abc002: Dr. Krishnendu (C202)</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="n"/>
-      <c r="I6" s="7" t="n"/>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L6" s="13" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-abc003
-B1-abc003: Prof. SRM Prasanna (L402)</t>
-        </is>
-      </c>
-      <c r="M6" s="7" t="n"/>
-      <c r="N6" s="5" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-abc006
+B2-abc005, B2-abc006
+B2-abc005: Dr. Rajendra H (L302)
 B2-abc006: Dr. Jagadeesha R Bhat (L401)</t>
         </is>
       </c>
-      <c r="O6" s="6" t="n"/>
-      <c r="P6" s="7" t="n"/>
-      <c r="Q6" s="9" t="inlineStr"/>
-      <c r="R6" s="13" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-abc001, B1-abc002
-B1-abc001: Dr. Sunil S (L404)
-B1-abc002: Dr. Krishnendu (C202)</t>
-        </is>
-      </c>
-      <c r="S6" s="6" t="n"/>
-      <c r="T6" s="7" t="n"/>
+      <c r="R6" s="6" t="n"/>
+      <c r="S6" s="7" t="n"/>
+      <c r="T6" s="10" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -7035,17 +7048,17 @@
     <row r="19">
       <c r="A19" s="19" t="inlineStr">
         <is>
-          <t>B2-abc008</t>
+          <t>B3-abc012</t>
         </is>
       </c>
       <c r="B19" s="19" t="inlineStr">
         <is>
-          <t>Quantum Communication</t>
+          <t>Microwave Engineering</t>
         </is>
       </c>
       <c r="C19" s="19" t="inlineStr">
         <is>
-          <t>Dr. Aswath B</t>
+          <t>Dr. Somen</t>
         </is>
       </c>
       <c r="D19" s="19" t="inlineStr">
@@ -7058,24 +7071,24 @@
       </c>
       <c r="F19" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="19" t="inlineStr">
         <is>
-          <t>B3-abc011</t>
+          <t>B2-abc010</t>
         </is>
       </c>
       <c r="B20" s="19" t="inlineStr">
         <is>
-          <t>Automotive Embedded and Multimedia Systems</t>
+          <t>Design Thinking and Innovation</t>
         </is>
       </c>
       <c r="C20" s="19" t="inlineStr">
         <is>
-          <t>Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="D20" s="19" t="inlineStr">
@@ -7088,24 +7101,24 @@
       </c>
       <c r="F20" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="19" t="inlineStr">
         <is>
-          <t>B2-abc007</t>
+          <t>B4-abc013</t>
         </is>
       </c>
       <c r="B21" s="19" t="inlineStr">
         <is>
-          <t>Model Checking</t>
+          <t>Data Analytics and Visualization</t>
         </is>
       </c>
       <c r="C21" s="19" t="inlineStr">
         <is>
-          <t>Dr. Pavan</t>
+          <t>Dr. Sunil CK</t>
         </is>
       </c>
       <c r="D21" s="19" t="inlineStr">
@@ -7118,24 +7131,24 @@
       </c>
       <c r="F21" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="19" t="inlineStr">
         <is>
-          <t>B3-abc012</t>
+          <t>B2-abc009</t>
         </is>
       </c>
       <c r="B22" s="19" t="inlineStr">
         <is>
-          <t>Microwave Engineering</t>
+          <t>Quantum HPC and AI</t>
         </is>
       </c>
       <c r="C22" s="19" t="inlineStr">
         <is>
-          <t>Dr. Somen</t>
+          <t>Dr. Manish M (Dr. Aswath)</t>
         </is>
       </c>
       <c r="D22" s="19" t="inlineStr">
@@ -7148,24 +7161,24 @@
       </c>
       <c r="F22" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="19" t="inlineStr">
         <is>
-          <t>B2-abc009</t>
+          <t>B3-CS462</t>
         </is>
       </c>
       <c r="B23" s="19" t="inlineStr">
         <is>
-          <t>Quantum HPC and AI</t>
+          <t>Computer Graphics</t>
         </is>
       </c>
       <c r="C23" s="19" t="inlineStr">
         <is>
-          <t>Dr. Manish M (Dr. Aswath)</t>
+          <t>Dr. Vivekraj V K</t>
         </is>
       </c>
       <c r="D23" s="19" t="inlineStr">
@@ -7178,24 +7191,24 @@
       </c>
       <c r="F23" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="19" t="inlineStr">
         <is>
-          <t>B4-abc013</t>
+          <t>B4-abc015</t>
         </is>
       </c>
       <c r="B24" s="19" t="inlineStr">
         <is>
-          <t>Data Analytics and Visualization</t>
+          <t>Medical Image Analysis</t>
         </is>
       </c>
       <c r="C24" s="19" t="inlineStr">
         <is>
-          <t>Dr. Sunil CK</t>
+          <t>Dr. Girish GN</t>
         </is>
       </c>
       <c r="D24" s="19" t="inlineStr">
@@ -7208,24 +7221,24 @@
       </c>
       <c r="F24" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="19" t="inlineStr">
         <is>
-          <t>B4-abc015</t>
+          <t>B4-abc014</t>
         </is>
       </c>
       <c r="B25" s="19" t="inlineStr">
         <is>
-          <t>Medical Image Analysis</t>
+          <t>Statistics for Health Technology</t>
         </is>
       </c>
       <c r="C25" s="19" t="inlineStr">
         <is>
-          <t>Dr. Girish GN</t>
+          <t>Dr. Ramesh Athe</t>
         </is>
       </c>
       <c r="D25" s="19" t="inlineStr">
@@ -7238,24 +7251,24 @@
       </c>
       <c r="F25" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="19" t="inlineStr">
         <is>
-          <t>B2-abc010</t>
+          <t>B2-abc008</t>
         </is>
       </c>
       <c r="B26" s="19" t="inlineStr">
         <is>
-          <t>Design Thinking and Innovation</t>
+          <t>Quantum Communication</t>
         </is>
       </c>
       <c r="C26" s="19" t="inlineStr">
         <is>
-          <t>Dr. Sandesh P</t>
+          <t>Dr. Aswath B</t>
         </is>
       </c>
       <c r="D26" s="19" t="inlineStr">
@@ -7268,24 +7281,24 @@
       </c>
       <c r="F26" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="19" t="inlineStr">
         <is>
-          <t>B3-CS462</t>
+          <t>B3-abc011</t>
         </is>
       </c>
       <c r="B27" s="19" t="inlineStr">
         <is>
-          <t>Computer Graphics</t>
+          <t>Automotive Embedded and Multimedia Systems</t>
         </is>
       </c>
       <c r="C27" s="19" t="inlineStr">
         <is>
-          <t>Dr. Vivekraj V K</t>
+          <t>Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
         </is>
       </c>
       <c r="D27" s="19" t="inlineStr">
@@ -7298,112 +7311,105 @@
       </c>
       <c r="F27" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="19" t="inlineStr">
-        <is>
-          <t>B4-abc014</t>
-        </is>
-      </c>
-      <c r="B28" s="19" t="inlineStr">
-        <is>
-          <t>Statistics for Health Technology</t>
-        </is>
-      </c>
-      <c r="C28" s="19" t="inlineStr">
-        <is>
-          <t>Dr. Ramesh Athe</t>
-        </is>
-      </c>
-      <c r="D28" s="19" t="inlineStr">
-        <is>
-          <t>LEC</t>
-        </is>
-      </c>
-      <c r="E28" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="19" t="inlineStr">
-        <is>
-          <t>Could not find suitable slot</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="20" t="inlineStr">
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="20" t="inlineStr">
         <is>
           <t>Legend</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="21" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="21" t="inlineStr">
         <is>
           <t>Subject Code</t>
         </is>
       </c>
-      <c r="B33" s="21" t="inlineStr">
+      <c r="B32" s="21" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
       </c>
-      <c r="C33" s="21" t="inlineStr">
+      <c r="C32" s="21" t="inlineStr">
         <is>
           <t>Subject Name</t>
         </is>
       </c>
-      <c r="D33" s="21" t="inlineStr">
+      <c r="D32" s="21" t="inlineStr">
         <is>
           <t>Faculty</t>
         </is>
       </c>
-      <c r="E33" s="21" t="inlineStr">
+      <c r="E32" s="21" t="inlineStr">
         <is>
           <t>LTPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="30" customHeight="1">
+      <c r="A33" s="22" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B33" s="23" t="inlineStr"/>
+      <c r="C33" s="22" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="D33" s="22" t="inlineStr">
+        <is>
+          <t>Dr. Girish GN/Dr. Krishnendu Ghosh</t>
+        </is>
+      </c>
+      <c r="E33" s="22" t="inlineStr">
+        <is>
+          <t>3-0-2-0</t>
         </is>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="B34" s="23" t="inlineStr"/>
+          <t>B1-CS471</t>
+        </is>
+      </c>
+      <c r="B34" s="29" t="inlineStr"/>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Deep Learning for Computer Vision</t>
         </is>
       </c>
       <c r="D34" s="22" t="inlineStr">
         <is>
-          <t>Dr. Girish GN/Dr. Krishnendu Ghosh</t>
+          <t>Chinmayanand</t>
         </is>
       </c>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>3-0-2-0</t>
+          <t>3-1-0-0</t>
         </is>
       </c>
     </row>
     <row r="35" ht="30" customHeight="1">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>B1-CS471</t>
+          <t>B1-abc001</t>
         </is>
       </c>
       <c r="B35" s="29" t="inlineStr"/>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Deep Learning for Computer Vision</t>
+          <t>Large Languange Models</t>
         </is>
       </c>
       <c r="D35" s="22" t="inlineStr">
         <is>
-          <t>Chinmayanand</t>
+          <t>Dr. Sunil S</t>
         </is>
       </c>
       <c r="E35" s="22" t="inlineStr">
@@ -7415,18 +7421,18 @@
     <row r="36" ht="30" customHeight="1">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>B1-abc001</t>
+          <t>B1-abc002</t>
         </is>
       </c>
       <c r="B36" s="29" t="inlineStr"/>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Large Languange Models</t>
+          <t>Natural Language Processing</t>
         </is>
       </c>
       <c r="D36" s="22" t="inlineStr">
         <is>
-          <t>Dr. Sunil S</t>
+          <t>Dr. Krishnendu</t>
         </is>
       </c>
       <c r="E36" s="22" t="inlineStr">
@@ -7438,64 +7444,64 @@
     <row r="37" ht="30" customHeight="1">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>B1-abc002</t>
+          <t>B1-abc003</t>
         </is>
       </c>
       <c r="B37" s="29" t="inlineStr"/>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Natural Language Processing</t>
+          <t>Deep Speech Processing</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
         <is>
-          <t>Dr. Krishnendu</t>
+          <t>Prof. SRM Prasanna</t>
         </is>
       </c>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>3-1-0-0</t>
+          <t>3-0-0-4</t>
         </is>
       </c>
     </row>
     <row r="38" ht="30" customHeight="1">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>B1-abc003</t>
-        </is>
-      </c>
-      <c r="B38" s="29" t="inlineStr"/>
+          <t>B2-abc005</t>
+        </is>
+      </c>
+      <c r="B38" s="30" t="inlineStr"/>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Deep Speech Processing</t>
+          <t>Blockchain Technology</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t>Prof. SRM Prasanna</t>
+          <t>Dr. Rajendra H</t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>3-0-0-4</t>
+          <t>3-1-0-0</t>
         </is>
       </c>
     </row>
     <row r="39" ht="30" customHeight="1">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>B2-abc005</t>
+          <t>B2-abc006</t>
         </is>
       </c>
       <c r="B39" s="30" t="inlineStr"/>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Blockchain Technology</t>
+          <t>Introduction to 5G Network</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t>Dr. Rajendra H</t>
+          <t>Dr. Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
@@ -7507,156 +7513,156 @@
     <row r="40" ht="30" customHeight="1">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>B2-abc006</t>
+          <t>B2-abc007</t>
         </is>
       </c>
       <c r="B40" s="30" t="inlineStr"/>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Introduction to 5G Network</t>
+          <t>Model Checking</t>
         </is>
       </c>
       <c r="D40" s="22" t="inlineStr">
         <is>
-          <t>Dr. Jagadeesha R Bhat</t>
+          <t>Dr. Pavan</t>
         </is>
       </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>3-1-0-0</t>
+          <t>3-0-0-4</t>
         </is>
       </c>
     </row>
     <row r="41" ht="30" customHeight="1">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>B2-abc007</t>
+          <t>B2-abc008</t>
         </is>
       </c>
       <c r="B41" s="30" t="inlineStr"/>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Model Checking</t>
+          <t>Quantum Communication</t>
         </is>
       </c>
       <c r="D41" s="22" t="inlineStr">
         <is>
-          <t>Dr. Pavan</t>
+          <t>Dr. Aswath B</t>
         </is>
       </c>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>3-0-0-4</t>
+          <t>3-0-0-0</t>
         </is>
       </c>
     </row>
     <row r="42" ht="30" customHeight="1">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>B2-abc008</t>
+          <t>B2-abc009</t>
         </is>
       </c>
       <c r="B42" s="30" t="inlineStr"/>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Quantum Communication</t>
+          <t>Quantum HPC and AI</t>
         </is>
       </c>
       <c r="D42" s="22" t="inlineStr">
         <is>
-          <t>Dr. Aswath B</t>
+          <t>Dr. Manish M (Dr. Aswath)</t>
         </is>
       </c>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>3-0-0-0</t>
+          <t>1-0-0-0</t>
         </is>
       </c>
     </row>
     <row r="43" ht="30" customHeight="1">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>B2-abc009</t>
+          <t>B2-abc010</t>
         </is>
       </c>
       <c r="B43" s="30" t="inlineStr"/>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Quantum HPC and AI</t>
+          <t>Design Thinking and Innovation</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t>Dr. Manish M (Dr. Aswath)</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>1-0-0-0</t>
+          <t>3-1-0-0</t>
         </is>
       </c>
     </row>
     <row r="44" ht="30" customHeight="1">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>B2-abc010</t>
-        </is>
-      </c>
-      <c r="B44" s="30" t="inlineStr"/>
+          <t>B3-abc011</t>
+        </is>
+      </c>
+      <c r="B44" s="33" t="inlineStr"/>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Design Thinking and Innovation</t>
+          <t>Automotive Embedded and Multimedia Systems</t>
         </is>
       </c>
       <c r="D44" s="22" t="inlineStr">
         <is>
-          <t>Dr. Sandesh P</t>
+          <t>Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
         </is>
       </c>
       <c r="E44" s="22" t="inlineStr">
         <is>
-          <t>3-1-0-0</t>
+          <t>3-0-0-4</t>
         </is>
       </c>
     </row>
     <row r="45" ht="30" customHeight="1">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>B3-abc011</t>
+          <t>B3-abc012</t>
         </is>
       </c>
       <c r="B45" s="33" t="inlineStr"/>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Automotive Embedded and Multimedia Systems</t>
+          <t>Microwave Engineering</t>
         </is>
       </c>
       <c r="D45" s="22" t="inlineStr">
         <is>
-          <t>Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
+          <t>Dr. Somen</t>
         </is>
       </c>
       <c r="E45" s="22" t="inlineStr">
         <is>
-          <t>3-0-0-4</t>
+          <t>3-1-0-0</t>
         </is>
       </c>
     </row>
     <row r="46" ht="30" customHeight="1">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>B3-abc012</t>
+          <t>B3-CS462</t>
         </is>
       </c>
       <c r="B46" s="33" t="inlineStr"/>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Microwave Engineering</t>
+          <t>Computer Graphics</t>
         </is>
       </c>
       <c r="D46" s="22" t="inlineStr">
         <is>
-          <t>Dr. Somen</t>
+          <t>Dr. Vivekraj V K</t>
         </is>
       </c>
       <c r="E46" s="22" t="inlineStr">
@@ -7668,18 +7674,18 @@
     <row r="47" ht="30" customHeight="1">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>B3-CS462</t>
-        </is>
-      </c>
-      <c r="B47" s="33" t="inlineStr"/>
+          <t>B4-abc013</t>
+        </is>
+      </c>
+      <c r="B47" s="34" t="inlineStr"/>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Computer Graphics</t>
+          <t>Data Analytics and Visualization</t>
         </is>
       </c>
       <c r="D47" s="22" t="inlineStr">
         <is>
-          <t>Dr. Vivekraj V K</t>
+          <t>Dr. Sunil CK</t>
         </is>
       </c>
       <c r="E47" s="22" t="inlineStr">
@@ -7691,18 +7697,18 @@
     <row r="48" ht="30" customHeight="1">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>B4-abc013</t>
+          <t>B4-abc014</t>
         </is>
       </c>
       <c r="B48" s="34" t="inlineStr"/>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Data Analytics and Visualization</t>
+          <t>Statistics for Health Technology</t>
         </is>
       </c>
       <c r="D48" s="22" t="inlineStr">
         <is>
-          <t>Dr. Sunil CK</t>
+          <t>Dr. Ramesh Athe</t>
         </is>
       </c>
       <c r="E48" s="22" t="inlineStr">
@@ -7714,100 +7720,78 @@
     <row r="49" ht="30" customHeight="1">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>B4-abc014</t>
+          <t>B4-abc015</t>
         </is>
       </c>
       <c r="B49" s="34" t="inlineStr"/>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Statistics for Health Technology</t>
+          <t>Medical Image Analysis</t>
         </is>
       </c>
       <c r="D49" s="22" t="inlineStr">
         <is>
-          <t>Dr. Ramesh Athe</t>
+          <t>Dr. Girish GN</t>
         </is>
       </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>3-1-0-0</t>
+          <t>3-0-0-4</t>
         </is>
       </c>
     </row>
     <row r="50" ht="30" customHeight="1">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>B4-abc015</t>
-        </is>
-      </c>
-      <c r="B50" s="34" t="inlineStr"/>
+          <t>CS399</t>
+        </is>
+      </c>
+      <c r="B50" s="25" t="inlineStr"/>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Medical Image Analysis</t>
+          <t>Mini Project 1</t>
         </is>
       </c>
       <c r="D50" s="22" t="inlineStr">
         <is>
-          <t>Dr. Girish GN</t>
+          <t>Dr. Pramod Yelmewad and Animesh Roy</t>
         </is>
       </c>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>3-0-0-4</t>
-        </is>
-      </c>
-    </row>
-    <row r="51" ht="30" customHeight="1">
-      <c r="A51" s="22" t="inlineStr">
-        <is>
-          <t>CS399</t>
-        </is>
-      </c>
-      <c r="B51" s="25" t="inlineStr"/>
-      <c r="C51" s="22" t="inlineStr">
-        <is>
-          <t>Mini Project 1</t>
-        </is>
-      </c>
-      <c r="D51" s="22" t="inlineStr">
-        <is>
-          <t>Dr. Pramod Yelmewad and Animesh Roy</t>
-        </is>
-      </c>
-      <c r="E51" s="22" t="inlineStr">
-        <is>
           <t>0-0-0-8</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="F5:H5"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="L3:M3"/>
+    <mergeCell ref="Q6:S6"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="R3:T3"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="S5:T5"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="R4:T4"/>
-    <mergeCell ref="M5:O5"/>
     <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="R6:T6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7957,18 +7941,18 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="9" t="inlineStr"/>
-      <c r="C2" s="9" t="inlineStr"/>
-      <c r="D2" s="9" t="inlineStr"/>
+      <c r="B2" s="10" t="inlineStr"/>
+      <c r="C2" s="10" t="inlineStr"/>
+      <c r="D2" s="10" t="inlineStr"/>
       <c r="E2" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F2" s="9" t="inlineStr"/>
-      <c r="G2" s="9" t="inlineStr"/>
-      <c r="H2" s="9" t="inlineStr"/>
-      <c r="I2" s="9" t="inlineStr"/>
+      <c r="F2" s="10" t="inlineStr"/>
+      <c r="G2" s="10" t="inlineStr"/>
+      <c r="H2" s="10" t="inlineStr"/>
+      <c r="I2" s="10" t="inlineStr"/>
       <c r="J2" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -7979,15 +7963,15 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L2" s="9" t="inlineStr"/>
-      <c r="M2" s="9" t="inlineStr"/>
-      <c r="N2" s="9" t="inlineStr"/>
-      <c r="O2" s="9" t="inlineStr"/>
-      <c r="P2" s="9" t="inlineStr"/>
-      <c r="Q2" s="9" t="inlineStr"/>
-      <c r="R2" s="9" t="inlineStr"/>
-      <c r="S2" s="9" t="inlineStr"/>
-      <c r="T2" s="9" t="inlineStr"/>
+      <c r="L2" s="10" t="inlineStr"/>
+      <c r="M2" s="10" t="inlineStr"/>
+      <c r="N2" s="10" t="inlineStr"/>
+      <c r="O2" s="10" t="inlineStr"/>
+      <c r="P2" s="10" t="inlineStr"/>
+      <c r="Q2" s="10" t="inlineStr"/>
+      <c r="R2" s="10" t="inlineStr"/>
+      <c r="S2" s="10" t="inlineStr"/>
+      <c r="T2" s="10" t="inlineStr"/>
     </row>
     <row r="3" ht="40" customHeight="1">
       <c r="A3" t="inlineStr">
@@ -7995,18 +7979,18 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr"/>
-      <c r="C3" s="9" t="inlineStr"/>
-      <c r="D3" s="9" t="inlineStr"/>
+      <c r="B3" s="10" t="inlineStr"/>
+      <c r="C3" s="10" t="inlineStr"/>
+      <c r="D3" s="10" t="inlineStr"/>
       <c r="E3" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F3" s="9" t="inlineStr"/>
-      <c r="G3" s="9" t="inlineStr"/>
-      <c r="H3" s="9" t="inlineStr"/>
-      <c r="I3" s="9" t="inlineStr"/>
+      <c r="F3" s="10" t="inlineStr"/>
+      <c r="G3" s="10" t="inlineStr"/>
+      <c r="H3" s="10" t="inlineStr"/>
+      <c r="I3" s="10" t="inlineStr"/>
       <c r="J3" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -8017,15 +8001,15 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L3" s="9" t="inlineStr"/>
-      <c r="M3" s="9" t="inlineStr"/>
-      <c r="N3" s="9" t="inlineStr"/>
-      <c r="O3" s="9" t="inlineStr"/>
-      <c r="P3" s="9" t="inlineStr"/>
-      <c r="Q3" s="9" t="inlineStr"/>
-      <c r="R3" s="9" t="inlineStr"/>
-      <c r="S3" s="9" t="inlineStr"/>
-      <c r="T3" s="9" t="inlineStr"/>
+      <c r="L3" s="10" t="inlineStr"/>
+      <c r="M3" s="10" t="inlineStr"/>
+      <c r="N3" s="10" t="inlineStr"/>
+      <c r="O3" s="10" t="inlineStr"/>
+      <c r="P3" s="10" t="inlineStr"/>
+      <c r="Q3" s="10" t="inlineStr"/>
+      <c r="R3" s="10" t="inlineStr"/>
+      <c r="S3" s="10" t="inlineStr"/>
+      <c r="T3" s="10" t="inlineStr"/>
     </row>
     <row r="4" ht="40" customHeight="1">
       <c r="A4" t="inlineStr">
@@ -8033,18 +8017,18 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="9" t="inlineStr"/>
-      <c r="C4" s="9" t="inlineStr"/>
-      <c r="D4" s="9" t="inlineStr"/>
+      <c r="B4" s="10" t="inlineStr"/>
+      <c r="C4" s="10" t="inlineStr"/>
+      <c r="D4" s="10" t="inlineStr"/>
       <c r="E4" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F4" s="9" t="inlineStr"/>
-      <c r="G4" s="9" t="inlineStr"/>
-      <c r="H4" s="9" t="inlineStr"/>
-      <c r="I4" s="9" t="inlineStr"/>
+      <c r="F4" s="10" t="inlineStr"/>
+      <c r="G4" s="10" t="inlineStr"/>
+      <c r="H4" s="10" t="inlineStr"/>
+      <c r="I4" s="10" t="inlineStr"/>
       <c r="J4" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -8055,15 +8039,15 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L4" s="9" t="inlineStr"/>
-      <c r="M4" s="9" t="inlineStr"/>
-      <c r="N4" s="9" t="inlineStr"/>
-      <c r="O4" s="9" t="inlineStr"/>
-      <c r="P4" s="9" t="inlineStr"/>
-      <c r="Q4" s="9" t="inlineStr"/>
-      <c r="R4" s="9" t="inlineStr"/>
-      <c r="S4" s="9" t="inlineStr"/>
-      <c r="T4" s="9" t="inlineStr"/>
+      <c r="L4" s="10" t="inlineStr"/>
+      <c r="M4" s="10" t="inlineStr"/>
+      <c r="N4" s="10" t="inlineStr"/>
+      <c r="O4" s="10" t="inlineStr"/>
+      <c r="P4" s="10" t="inlineStr"/>
+      <c r="Q4" s="10" t="inlineStr"/>
+      <c r="R4" s="10" t="inlineStr"/>
+      <c r="S4" s="10" t="inlineStr"/>
+      <c r="T4" s="10" t="inlineStr"/>
     </row>
     <row r="5" ht="40" customHeight="1">
       <c r="A5" t="inlineStr">
@@ -8071,18 +8055,18 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="9" t="inlineStr"/>
-      <c r="C5" s="9" t="inlineStr"/>
-      <c r="D5" s="9" t="inlineStr"/>
+      <c r="B5" s="10" t="inlineStr"/>
+      <c r="C5" s="10" t="inlineStr"/>
+      <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F5" s="9" t="inlineStr"/>
-      <c r="G5" s="9" t="inlineStr"/>
-      <c r="H5" s="9" t="inlineStr"/>
-      <c r="I5" s="9" t="inlineStr"/>
+      <c r="F5" s="10" t="inlineStr"/>
+      <c r="G5" s="10" t="inlineStr"/>
+      <c r="H5" s="10" t="inlineStr"/>
+      <c r="I5" s="10" t="inlineStr"/>
       <c r="J5" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -8093,15 +8077,15 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L5" s="9" t="inlineStr"/>
-      <c r="M5" s="9" t="inlineStr"/>
-      <c r="N5" s="9" t="inlineStr"/>
-      <c r="O5" s="9" t="inlineStr"/>
-      <c r="P5" s="9" t="inlineStr"/>
-      <c r="Q5" s="9" t="inlineStr"/>
-      <c r="R5" s="9" t="inlineStr"/>
-      <c r="S5" s="9" t="inlineStr"/>
-      <c r="T5" s="9" t="inlineStr"/>
+      <c r="L5" s="10" t="inlineStr"/>
+      <c r="M5" s="10" t="inlineStr"/>
+      <c r="N5" s="10" t="inlineStr"/>
+      <c r="O5" s="10" t="inlineStr"/>
+      <c r="P5" s="10" t="inlineStr"/>
+      <c r="Q5" s="10" t="inlineStr"/>
+      <c r="R5" s="10" t="inlineStr"/>
+      <c r="S5" s="10" t="inlineStr"/>
+      <c r="T5" s="10" t="inlineStr"/>
     </row>
     <row r="6" ht="40" customHeight="1">
       <c r="A6" t="inlineStr">
@@ -8109,18 +8093,18 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr"/>
-      <c r="C6" s="9" t="inlineStr"/>
-      <c r="D6" s="9" t="inlineStr"/>
+      <c r="B6" s="10" t="inlineStr"/>
+      <c r="C6" s="10" t="inlineStr"/>
+      <c r="D6" s="10" t="inlineStr"/>
       <c r="E6" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F6" s="9" t="inlineStr"/>
-      <c r="G6" s="9" t="inlineStr"/>
-      <c r="H6" s="9" t="inlineStr"/>
-      <c r="I6" s="9" t="inlineStr"/>
+      <c r="F6" s="10" t="inlineStr"/>
+      <c r="G6" s="10" t="inlineStr"/>
+      <c r="H6" s="10" t="inlineStr"/>
+      <c r="I6" s="10" t="inlineStr"/>
       <c r="J6" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -8131,15 +8115,15 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L6" s="9" t="inlineStr"/>
-      <c r="M6" s="9" t="inlineStr"/>
-      <c r="N6" s="9" t="inlineStr"/>
-      <c r="O6" s="9" t="inlineStr"/>
-      <c r="P6" s="9" t="inlineStr"/>
-      <c r="Q6" s="9" t="inlineStr"/>
-      <c r="R6" s="9" t="inlineStr"/>
-      <c r="S6" s="9" t="inlineStr"/>
-      <c r="T6" s="9" t="inlineStr"/>
+      <c r="L6" s="10" t="inlineStr"/>
+      <c r="M6" s="10" t="inlineStr"/>
+      <c r="N6" s="10" t="inlineStr"/>
+      <c r="O6" s="10" t="inlineStr"/>
+      <c r="P6" s="10" t="inlineStr"/>
+      <c r="Q6" s="10" t="inlineStr"/>
+      <c r="R6" s="10" t="inlineStr"/>
+      <c r="S6" s="10" t="inlineStr"/>
+      <c r="T6" s="10" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -8250,7 +8234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8390,9 +8374,9 @@
       </c>
       <c r="B2" s="35" t="inlineStr">
         <is>
-          <t>HS161 LEC
-room no. :C102
-Dr. Rajesh N S</t>
+          <t>MA163 LEC
+room no. :C104
+Dr. Sibasankar Padhy</t>
         </is>
       </c>
       <c r="C2" s="6" t="n"/>
@@ -8402,251 +8386,257 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F2" s="36" t="inlineStr">
+      <c r="F2" s="9" t="inlineStr">
+        <is>
+          <t>CS164 LEC
+room no. :C201
+Dr. Manjunath</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="7" t="n"/>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K2" s="9" t="inlineStr">
+        <is>
+          <t>CS164 LAB
+room no. :L206+L207
+Dr. Manjunath</t>
+        </is>
+      </c>
+      <c r="L2" s="6" t="n"/>
+      <c r="M2" s="6" t="n"/>
+      <c r="N2" s="7" t="n"/>
+      <c r="O2" s="10" t="inlineStr"/>
+      <c r="P2" s="9" t="inlineStr">
+        <is>
+          <t>CS164 LEC
+room no. :C104
+Dr. Manjunath</t>
+        </is>
+      </c>
+      <c r="Q2" s="6" t="n"/>
+      <c r="R2" s="7" t="n"/>
+      <c r="S2" s="10" t="inlineStr"/>
+      <c r="T2" s="10" t="inlineStr"/>
+    </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="inlineStr"/>
+      <c r="C3" s="10" t="inlineStr"/>
+      <c r="D3" s="10" t="inlineStr"/>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="36" t="inlineStr">
+        <is>
+          <t>HS161 LEC
+room no. :C201
+Dr. Rajesh N S</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="7" t="n"/>
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="15" t="inlineStr">
+        <is>
+          <t>CS163 LAB
+room no. :L106+L107
+Dr. Sunil Saumya</t>
+        </is>
+      </c>
+      <c r="L3" s="6" t="n"/>
+      <c r="M3" s="6" t="n"/>
+      <c r="N3" s="7" t="n"/>
+      <c r="O3" s="14" t="inlineStr">
+        <is>
+          <t>DS164 LAB
+room no. :L106+L107
+Dr. Siddharth R</t>
+        </is>
+      </c>
+      <c r="P3" s="6" t="n"/>
+      <c r="Q3" s="6" t="n"/>
+      <c r="R3" s="7" t="n"/>
+      <c r="S3" s="10" t="inlineStr"/>
+      <c r="T3" s="10" t="inlineStr"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="35" t="inlineStr">
+        <is>
+          <t>MA163 TUT
+room no. :C104
+Dr. Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="n"/>
+      <c r="D4" s="10" t="inlineStr"/>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="37" t="inlineStr">
+        <is>
+          <t>CS162 LEC
+room no. :C104
+Dr. Dibyajyothi Guha</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="7" t="n"/>
+      <c r="I4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="14" t="inlineStr">
+        <is>
+          <t>DS164 LEC
+room no. :C104
+Dr. Siddharth R</t>
+        </is>
+      </c>
+      <c r="L4" s="6" t="n"/>
+      <c r="M4" s="7" t="n"/>
+      <c r="N4" s="37" t="inlineStr">
         <is>
           <t>CS162 TUT
 room no. :C104
 Dr. Dibyajyothi Guha</t>
         </is>
       </c>
-      <c r="G2" s="7" t="n"/>
-      <c r="H2" s="9" t="inlineStr"/>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K2" s="9" t="inlineStr"/>
-      <c r="L2" s="10" t="inlineStr">
-        <is>
-          <t>CS164 LEC
+      <c r="O4" s="7" t="n"/>
+      <c r="P4" s="15" t="inlineStr">
+        <is>
+          <t>CS163 LEC
+room no. :C202
+Dr. Sunil Saumya</t>
+        </is>
+      </c>
+      <c r="Q4" s="6" t="n"/>
+      <c r="R4" s="7" t="n"/>
+      <c r="S4" s="10" t="inlineStr"/>
+      <c r="T4" s="10" t="inlineStr"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="36" t="inlineStr">
+        <is>
+          <t>HS161 LEC
 room no. :C104
-Dr. Manjunath</t>
-        </is>
-      </c>
-      <c r="M2" s="6" t="n"/>
-      <c r="N2" s="7" t="n"/>
-      <c r="O2" s="31" t="inlineStr">
-        <is>
-          <t>B3 Courses
-B3-NEW
-B3-NEW: Dr Prakash Pawar (L106)</t>
-        </is>
-      </c>
-      <c r="P2" s="6" t="n"/>
-      <c r="Q2" s="6" t="n"/>
-      <c r="R2" s="7" t="n"/>
-      <c r="S2" s="9" t="inlineStr"/>
-      <c r="T2" s="9" t="inlineStr"/>
-    </row>
-    <row r="3" ht="40" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B3" s="36" t="inlineStr">
+Dr. Rajesh N S</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="37" t="inlineStr">
         <is>
           <t>CS162 LEC
 room no. :C102
 Dr. Dibyajyothi Guha</t>
         </is>
       </c>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="37" t="inlineStr">
-        <is>
-          <t>MA163 LEC
-room no. :C104
-Dr. Sibasankar Padhy</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="7" t="n"/>
-      <c r="I3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="12" t="inlineStr">
-        <is>
-          <t>CS163 LAB
-room no. :L206+L207
-Dr. Sunil Saumya</t>
-        </is>
-      </c>
-      <c r="L3" s="6" t="n"/>
-      <c r="M3" s="6" t="n"/>
-      <c r="N3" s="7" t="n"/>
-      <c r="O3" s="9" t="inlineStr"/>
-      <c r="P3" s="9" t="inlineStr"/>
-      <c r="Q3" s="9" t="inlineStr"/>
-      <c r="R3" s="14" t="inlineStr">
-        <is>
-          <t>DS164 LEC
-room no. :C201
-Dr. Siddharth R</t>
-        </is>
-      </c>
-      <c r="S3" s="6" t="n"/>
-      <c r="T3" s="7" t="n"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="37" t="inlineStr">
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="7" t="n"/>
+      <c r="I5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="32" t="inlineStr">
+        <is>
+          <t>B3 Courses
+B3-NEW
+B3-NEW: Dr. Abdul Wahid (L108)</t>
+        </is>
+      </c>
+      <c r="L5" s="6" t="n"/>
+      <c r="M5" s="6" t="n"/>
+      <c r="N5" s="7" t="n"/>
+      <c r="O5" s="32" t="inlineStr">
+        <is>
+          <t>B3 Courses
+B3-NEW
+B3-NEW: Dr. Abdul Wahid (L108)</t>
+        </is>
+      </c>
+      <c r="P5" s="6" t="n"/>
+      <c r="Q5" s="6" t="n"/>
+      <c r="R5" s="7" t="n"/>
+      <c r="S5" s="10" t="inlineStr"/>
+      <c r="T5" s="10" t="inlineStr"/>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="10" t="inlineStr"/>
+      <c r="C6" s="10" t="inlineStr"/>
+      <c r="D6" s="10" t="inlineStr"/>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="35" t="inlineStr">
         <is>
           <t>MA163 LEC
 room no. :C102
 Dr. Sibasankar Padhy</t>
         </is>
       </c>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="9" t="inlineStr"/>
-      <c r="G4" s="9" t="inlineStr"/>
-      <c r="H4" s="9" t="inlineStr"/>
-      <c r="I4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="10" t="inlineStr">
-        <is>
-          <t>CS164 LAB
-room no. :L206+L207
-Dr. Manjunath</t>
-        </is>
-      </c>
-      <c r="L4" s="6" t="n"/>
-      <c r="M4" s="6" t="n"/>
-      <c r="N4" s="7" t="n"/>
-      <c r="O4" s="9" t="inlineStr"/>
-      <c r="P4" s="9" t="inlineStr"/>
-      <c r="Q4" s="12" t="inlineStr">
-        <is>
-          <t>CS163 LEC
-room no. :C104
-Dr. Sunil Saumya</t>
-        </is>
-      </c>
-      <c r="R4" s="6" t="n"/>
-      <c r="S4" s="7" t="n"/>
-      <c r="T4" s="9" t="inlineStr"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="35" t="inlineStr">
-        <is>
-          <t>HS161 LEC
-room no. :C104
-Dr. Rajesh N S</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="36" t="inlineStr">
-        <is>
-          <t>CS162 LEC
-room no. :C102
-Dr. Dibyajyothi Guha</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="14" t="inlineStr">
-        <is>
-          <t>DS164 LAB
-room no. :L206+L207
-Dr. Siddharth R</t>
-        </is>
-      </c>
-      <c r="L5" s="6" t="n"/>
-      <c r="M5" s="6" t="n"/>
-      <c r="N5" s="7" t="n"/>
-      <c r="O5" s="12" t="inlineStr">
-        <is>
-          <t>CS163 LEC
-room no. :C201
-Dr. Sunil Saumya</t>
-        </is>
-      </c>
-      <c r="P5" s="6" t="n"/>
-      <c r="Q5" s="7" t="n"/>
-      <c r="R5" s="37" t="inlineStr">
-        <is>
-          <t>MA163 TUT
-room no. :C104
-Dr. Sibasankar Padhy</t>
-        </is>
-      </c>
-      <c r="S5" s="7" t="n"/>
-      <c r="T5" s="9" t="inlineStr"/>
-    </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="inlineStr"/>
-      <c r="C6" s="9" t="inlineStr"/>
-      <c r="D6" s="9" t="inlineStr"/>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="inlineStr"/>
-      <c r="G6" s="9" t="inlineStr"/>
-      <c r="H6" s="9" t="inlineStr"/>
+      <c r="G6" s="6" t="n"/>
+      <c r="H6" s="7" t="n"/>
       <c r="I6" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -8657,28 +8647,28 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="K6" s="10" t="inlineStr">
-        <is>
-          <t>CS164 LEC
-room no. :C201
-Dr. Manjunath</t>
-        </is>
-      </c>
-      <c r="L6" s="6" t="n"/>
-      <c r="M6" s="7" t="n"/>
-      <c r="N6" s="31" t="inlineStr">
+      <c r="K6" s="32" t="inlineStr">
         <is>
           <t>B3 Courses
 B3-NEW
-B3-NEW: Dr. Abdul Wahid (L106)</t>
-        </is>
-      </c>
-      <c r="O6" s="6" t="n"/>
-      <c r="P6" s="6" t="n"/>
-      <c r="Q6" s="7" t="n"/>
-      <c r="R6" s="9" t="inlineStr"/>
-      <c r="S6" s="9" t="inlineStr"/>
-      <c r="T6" s="9" t="inlineStr"/>
+B3-NEW: Dr. Ashwath Babu &amp; Prof. Ravi Shankar (L108)</t>
+        </is>
+      </c>
+      <c r="L6" s="6" t="n"/>
+      <c r="M6" s="6" t="n"/>
+      <c r="N6" s="7" t="n"/>
+      <c r="O6" s="10" t="inlineStr"/>
+      <c r="P6" s="15" t="inlineStr">
+        <is>
+          <t>CS163 LEC
+room no. :C102
+Dr. Sunil Saumya</t>
+        </is>
+      </c>
+      <c r="Q6" s="6" t="n"/>
+      <c r="R6" s="7" t="n"/>
+      <c r="S6" s="10" t="inlineStr"/>
+      <c r="T6" s="10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="17" t="inlineStr">
@@ -8722,17 +8712,17 @@
     <row r="14">
       <c r="A14" s="19" t="inlineStr">
         <is>
-          <t>B3-NEW</t>
+          <t>B4-NEW</t>
         </is>
       </c>
       <c r="B14" s="19" t="inlineStr">
         <is>
-          <t>Principles of Quantum Physics</t>
+          <t>Linux for Engineers</t>
         </is>
       </c>
       <c r="C14" s="19" t="inlineStr">
         <is>
-          <t>Dr. Ashwath Babu &amp; Prof. Ravi Shankar</t>
+          <t>Dr. Shirshendu Layek</t>
         </is>
       </c>
       <c r="D14" s="19" t="inlineStr">
@@ -8745,7 +8735,7 @@
       </c>
       <c r="F14" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable room and time slot combination</t>
+          <t>Could not find compatible 2.0 hour timeslot for B4-NEW LAB with faculty Dr. Shirshendu Layek</t>
         </is>
       </c>
     </row>
@@ -8775,89 +8765,82 @@
       </c>
       <c r="F15" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable room and time slot combination</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="19" t="inlineStr">
-        <is>
-          <t>B4-NEW</t>
-        </is>
-      </c>
-      <c r="B16" s="19" t="inlineStr">
-        <is>
-          <t>Linux for Engineers</t>
-        </is>
-      </c>
-      <c r="C16" s="19" t="inlineStr">
-        <is>
-          <t>Dr. Shirshendu Layek</t>
-        </is>
-      </c>
-      <c r="D16" s="19" t="inlineStr">
-        <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="E16" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="19" t="inlineStr">
-        <is>
-          <t>Could not find suitable room and time slot combination</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="20" t="inlineStr">
+          <t>Could not find compatible 2.0 hour timeslot for B4-HS151 LAB with faculty Dr. Siddharth</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="20" t="inlineStr">
         <is>
           <t>Legend</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="21" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="21" t="inlineStr">
         <is>
           <t>Subject Code</t>
         </is>
       </c>
-      <c r="B21" s="21" t="inlineStr">
+      <c r="B20" s="21" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
       </c>
-      <c r="C21" s="21" t="inlineStr">
+      <c r="C20" s="21" t="inlineStr">
         <is>
           <t>Subject Name</t>
         </is>
       </c>
-      <c r="D21" s="21" t="inlineStr">
+      <c r="D20" s="21" t="inlineStr">
         <is>
           <t>Faculty</t>
         </is>
       </c>
-      <c r="E21" s="21" t="inlineStr">
+      <c r="E20" s="21" t="inlineStr">
         <is>
           <t>LTPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="30" customHeight="1">
+      <c r="A21" s="22" t="inlineStr">
+        <is>
+          <t>CS164</t>
+        </is>
+      </c>
+      <c r="B21" s="23" t="inlineStr"/>
+      <c r="C21" s="22" t="inlineStr">
+        <is>
+          <t>Computer Architecture</t>
+        </is>
+      </c>
+      <c r="D21" s="22" t="inlineStr">
+        <is>
+          <t>Dr. Manjunath</t>
+        </is>
+      </c>
+      <c r="E21" s="22" t="inlineStr">
+        <is>
+          <t>3-0-2-0</t>
         </is>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>CS164</t>
-        </is>
-      </c>
-      <c r="B22" s="23" t="inlineStr"/>
+          <t>CS163</t>
+        </is>
+      </c>
+      <c r="B22" s="24" t="inlineStr"/>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Computer Architecture</t>
+          <t>Data Structures &amp; Algorithms</t>
         </is>
       </c>
       <c r="D22" s="22" t="inlineStr">
         <is>
-          <t>Dr. Manjunath</t>
+          <t>Dr. Sunil Saumya</t>
         </is>
       </c>
       <c r="E22" s="22" t="inlineStr">
@@ -8869,64 +8852,64 @@
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>CS163</t>
-        </is>
-      </c>
-      <c r="B23" s="24" t="inlineStr"/>
+          <t>DS164</t>
+        </is>
+      </c>
+      <c r="B23" s="25" t="inlineStr"/>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Data Structures &amp; Algorithms</t>
+          <t>Data Curation Techniques</t>
         </is>
       </c>
       <c r="D23" s="22" t="inlineStr">
         <is>
-          <t>Dr. Sunil Saumya</t>
+          <t>Dr. Siddharth R</t>
         </is>
       </c>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>3-0-2-0</t>
+          <t>2-0-2-0</t>
         </is>
       </c>
     </row>
     <row r="24" ht="30" customHeight="1">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>DS164</t>
-        </is>
-      </c>
-      <c r="B24" s="25" t="inlineStr"/>
+          <t>B3-NEW</t>
+        </is>
+      </c>
+      <c r="B24" s="33" t="inlineStr"/>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Data Curation Techniques</t>
+          <t>Data Science with Python</t>
         </is>
       </c>
       <c r="D24" s="22" t="inlineStr">
         <is>
-          <t>Dr. Siddharth R</t>
+          <t>Dr. Abdul Wahid</t>
         </is>
       </c>
       <c r="E24" s="22" t="inlineStr">
         <is>
-          <t>2-0-2-0</t>
+          <t>0-0-2-0</t>
         </is>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>B3-NEW</t>
-        </is>
-      </c>
-      <c r="B25" s="33" t="inlineStr"/>
+          <t>B4-NEW</t>
+        </is>
+      </c>
+      <c r="B25" s="34" t="inlineStr"/>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Data Science with Python</t>
+          <t>Linux for Engineers</t>
         </is>
       </c>
       <c r="D25" s="22" t="inlineStr">
         <is>
-          <t>Dr. Abdul Wahid</t>
+          <t>Dr. Shirshendu Layek</t>
         </is>
       </c>
       <c r="E25" s="22" t="inlineStr">
@@ -8938,87 +8921,87 @@
     <row r="26" ht="30" customHeight="1">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>B4-NEW</t>
+          <t>B4-ASD151</t>
         </is>
       </c>
       <c r="B26" s="34" t="inlineStr"/>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Linux for Engineers</t>
+          <t>Introduction to Design</t>
         </is>
       </c>
       <c r="D26" s="22" t="inlineStr">
         <is>
-          <t>Dr. Shirshendu Layek</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>0-0-2-0</t>
+          <t>0-0-1-0</t>
         </is>
       </c>
     </row>
     <row r="27" ht="30" customHeight="1">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>B4-ASD151</t>
+          <t>B4-HS151</t>
         </is>
       </c>
       <c r="B27" s="34" t="inlineStr"/>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Introduction to Design</t>
+          <t>Introduction to Personal Finance</t>
         </is>
       </c>
       <c r="D27" s="22" t="inlineStr">
         <is>
-          <t>Dr. Sandesh P</t>
+          <t>Dr. Siddharth</t>
         </is>
       </c>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>0-0-1-0</t>
+          <t>0-0-2-0</t>
         </is>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>B4-HS151</t>
-        </is>
-      </c>
-      <c r="B28" s="34" t="inlineStr"/>
+          <t>MA163</t>
+        </is>
+      </c>
+      <c r="B28" s="38" t="inlineStr"/>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Introduction to Personal Finance</t>
+          <t>Linear Algebra</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
         <is>
-          <t>Dr. Siddharth</t>
+          <t>Dr. Sibasankar Padhy</t>
         </is>
       </c>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>0-0-2-0</t>
+          <t>3-1-0-0</t>
         </is>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>MA163</t>
-        </is>
-      </c>
-      <c r="B29" s="38" t="inlineStr"/>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="B29" s="39" t="inlineStr"/>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Linear Algebra</t>
+          <t>Optimization</t>
         </is>
       </c>
       <c r="D29" s="22" t="inlineStr">
         <is>
-          <t>Dr. Sibasankar Padhy</t>
+          <t>Dr. Dibyajyothi Guha</t>
         </is>
       </c>
       <c r="E29" s="22" t="inlineStr">
@@ -9030,69 +9013,47 @@
     <row r="30" ht="30" customHeight="1">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>CS162</t>
-        </is>
-      </c>
-      <c r="B30" s="39" t="inlineStr"/>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="B30" s="40" t="inlineStr"/>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Optimization</t>
+          <t>English Language and Communication</t>
         </is>
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t>Dr. Dibyajyothi Guha</t>
+          <t>Dr. Rajesh N S</t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>3-1-0-0</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="30" customHeight="1">
-      <c r="A31" s="22" t="inlineStr">
-        <is>
-          <t>HS161</t>
-        </is>
-      </c>
-      <c r="B31" s="40" t="inlineStr"/>
-      <c r="C31" s="22" t="inlineStr">
-        <is>
-          <t>English Language and Communication</t>
-        </is>
-      </c>
-      <c r="D31" s="22" t="inlineStr">
-        <is>
-          <t>Dr. Rajesh N S</t>
-        </is>
-      </c>
-      <c r="E31" s="22" t="inlineStr">
-        <is>
           <t>3-0-0-0</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="K4:N4"/>
+  <mergeCells count="19">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="K5:N5"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="P6:R6"/>
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9242,11 +9203,11 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="16" t="inlineStr">
-        <is>
-          <t>CS204 LEC
-room no. :C104
-Dr. Manjunath KV</t>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>HS206 LEC
+room no. :C201
+Dr. Navyashree</t>
         </is>
       </c>
       <c r="C2" s="6" t="n"/>
@@ -9256,11 +9217,11 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F2" s="10" t="inlineStr">
-        <is>
-          <t>CS310 LAB
-room no. :L106+L107
-Dr. Shirshendu &amp; Dr. Utkarsh Khaire</t>
+      <c r="F2" s="15" t="inlineStr">
+        <is>
+          <t>DS204 LAB
+room no. :L206+L207
+Dr. Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="G2" s="6" t="n"/>
@@ -9276,27 +9237,21 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L2" s="11" t="inlineStr">
-        <is>
-          <t>HS206 LEC
-room no. :C201
-Dr. Navyashree</t>
-        </is>
-      </c>
-      <c r="M2" s="6" t="n"/>
-      <c r="N2" s="7" t="n"/>
-      <c r="O2" s="9" t="inlineStr"/>
-      <c r="P2" s="14" t="inlineStr">
-        <is>
-          <t>MA202 LEC
-room no. :C201
-Dr. Chinmayananda</t>
-        </is>
-      </c>
-      <c r="Q2" s="6" t="n"/>
-      <c r="R2" s="7" t="n"/>
-      <c r="S2" s="9" t="inlineStr"/>
-      <c r="T2" s="9" t="inlineStr"/>
+      <c r="L2" s="10" t="inlineStr"/>
+      <c r="M2" s="12" t="inlineStr">
+        <is>
+          <t>DS205 LEC
+room no. :C104
+Mr. Manmohan Singh</t>
+        </is>
+      </c>
+      <c r="N2" s="6" t="n"/>
+      <c r="O2" s="7" t="n"/>
+      <c r="P2" s="10" t="inlineStr"/>
+      <c r="Q2" s="10" t="inlineStr"/>
+      <c r="R2" s="10" t="inlineStr"/>
+      <c r="S2" s="10" t="inlineStr"/>
+      <c r="T2" s="10" t="inlineStr"/>
     </row>
     <row r="3" ht="40" customHeight="1">
       <c r="A3" t="inlineStr">
@@ -9304,167 +9259,173 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr"/>
-      <c r="C3" s="9" t="inlineStr"/>
-      <c r="D3" s="9" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>HS206 LEC
+room no. :C102
+Dr. Navyashree</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="7" t="n"/>
       <c r="E3" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F3" s="9" t="inlineStr"/>
-      <c r="G3" s="10" t="inlineStr">
+      <c r="F3" s="14" t="inlineStr">
+        <is>
+          <t>MA202 LEC
+room no. :C202
+Dr. Chinmayananda</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="7" t="n"/>
+      <c r="I3" s="10" t="inlineStr"/>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="10" t="inlineStr"/>
+      <c r="M3" s="11" t="inlineStr">
+        <is>
+          <t>CS204 LEC
+room no. :C201
+Dr. Manjunath KV</t>
+        </is>
+      </c>
+      <c r="N3" s="6" t="n"/>
+      <c r="O3" s="7" t="n"/>
+      <c r="P3" s="10" t="inlineStr"/>
+      <c r="Q3" s="10" t="inlineStr"/>
+      <c r="R3" s="10" t="inlineStr"/>
+      <c r="S3" s="10" t="inlineStr"/>
+      <c r="T3" s="10" t="inlineStr"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="9" t="inlineStr">
         <is>
           <t>CS310 LEC
 room no. :C201
 Dr. Shirshendu &amp; Dr. Utkarsh Khaire</t>
         </is>
       </c>
-      <c r="H3" s="6" t="n"/>
-      <c r="I3" s="7" t="n"/>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr"/>
-      <c r="M3" s="9" t="inlineStr"/>
-      <c r="N3" s="9" t="inlineStr"/>
-      <c r="O3" s="9" t="inlineStr"/>
-      <c r="P3" s="9" t="inlineStr"/>
-      <c r="Q3" s="15" t="inlineStr">
-        <is>
-          <t>DS205 LEC
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="7" t="n"/>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="9" t="inlineStr">
+        <is>
+          <t>CS310 LAB
+room no. :L106+L107
+Dr. Shirshendu &amp; Dr. Utkarsh Khaire</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="6" t="n"/>
+      <c r="I4" s="7" t="n"/>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="10" t="inlineStr"/>
+      <c r="M4" s="10" t="inlineStr"/>
+      <c r="N4" s="10" t="inlineStr"/>
+      <c r="O4" s="11" t="inlineStr">
+        <is>
+          <t>CS204 LEC
+room no. :C201
+Dr. Manjunath KV</t>
+        </is>
+      </c>
+      <c r="P4" s="6" t="n"/>
+      <c r="Q4" s="7" t="n"/>
+      <c r="R4" s="10" t="inlineStr"/>
+      <c r="S4" s="10" t="inlineStr"/>
+      <c r="T4" s="10" t="inlineStr"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="14" t="inlineStr">
+        <is>
+          <t>MA202 TUT
 room no. :C202
-Mr. Manmohan Singh</t>
-        </is>
-      </c>
-      <c r="R3" s="6" t="n"/>
-      <c r="S3" s="7" t="n"/>
-      <c r="T3" s="9" t="inlineStr"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="9" t="inlineStr"/>
-      <c r="C4" s="9" t="inlineStr"/>
-      <c r="D4" s="9" t="inlineStr"/>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="16" t="inlineStr">
+Dr. Chinmayananda</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="10" t="inlineStr"/>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="inlineStr"/>
+      <c r="G5" s="11" t="inlineStr">
         <is>
           <t>CS204 TUT
+room no. :C104
+Dr. Manjunath KV</t>
+        </is>
+      </c>
+      <c r="H5" s="7" t="n"/>
+      <c r="I5" s="10" t="inlineStr"/>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="10" t="inlineStr"/>
+      <c r="M5" s="14" t="inlineStr">
+        <is>
+          <t>MA202 LEC
 room no. :C102
-Dr. Manjunath KV</t>
-        </is>
-      </c>
-      <c r="G4" s="7" t="n"/>
-      <c r="H4" s="9" t="inlineStr"/>
-      <c r="I4" s="9" t="inlineStr"/>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L4" s="12" t="inlineStr">
+Dr. Chinmayananda</t>
+        </is>
+      </c>
+      <c r="N5" s="6" t="n"/>
+      <c r="O5" s="7" t="n"/>
+      <c r="P5" s="10" t="inlineStr"/>
+      <c r="Q5" s="10" t="inlineStr"/>
+      <c r="R5" s="15" t="inlineStr">
         <is>
           <t>DS204 LEC
 room no. :C104
 Dr. Animesh Chaturvedi</t>
         </is>
       </c>
-      <c r="M4" s="6" t="n"/>
-      <c r="N4" s="7" t="n"/>
-      <c r="O4" s="9" t="inlineStr"/>
-      <c r="P4" s="9" t="inlineStr"/>
-      <c r="Q4" s="9" t="inlineStr"/>
-      <c r="R4" s="9" t="inlineStr"/>
-      <c r="S4" s="10" t="inlineStr">
-        <is>
-          <t>CS310 TUT
-room no. :C101
-Dr. Shirshendu &amp; Dr. Utkarsh Khaire</t>
-        </is>
-      </c>
-      <c r="T4" s="7" t="n"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="15" t="inlineStr">
-        <is>
-          <t>DS205 LEC
-room no. :C201
-Mr. Manmohan Singh</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="inlineStr"/>
-      <c r="G5" s="12" t="inlineStr">
-        <is>
-          <t>DS204 LEC
-room no. :C201
-Dr. Animesh Chaturvedi</t>
-        </is>
-      </c>
-      <c r="H5" s="6" t="n"/>
-      <c r="I5" s="7" t="n"/>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="12" t="inlineStr">
-        <is>
-          <t>DS204 LAB
-room no. :L306+L307
-Dr. Animesh Chaturvedi</t>
-        </is>
-      </c>
-      <c r="M5" s="6" t="n"/>
-      <c r="N5" s="6" t="n"/>
-      <c r="O5" s="7" t="n"/>
-      <c r="P5" s="9" t="inlineStr"/>
-      <c r="Q5" s="11" t="inlineStr">
-        <is>
-          <t>HS206 LEC
-room no. :C202
-Dr. Navyashree</t>
-        </is>
-      </c>
-      <c r="R5" s="6" t="n"/>
-      <c r="S5" s="7" t="n"/>
-      <c r="T5" s="9" t="inlineStr"/>
+      <c r="S5" s="6" t="n"/>
+      <c r="T5" s="7" t="n"/>
     </row>
     <row r="6" ht="40" customHeight="1">
       <c r="A6" t="inlineStr">
@@ -9472,11 +9433,11 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="16" t="inlineStr">
-        <is>
-          <t>CS204 LEC
-room no. :C104
-Dr. Manjunath KV</t>
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <t>CS310 LEC
+room no. :C102
+Dr. Shirshendu &amp; Dr. Utkarsh Khaire</t>
         </is>
       </c>
       <c r="C6" s="6" t="n"/>
@@ -9486,47 +9447,47 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F6" s="10" t="inlineStr">
-        <is>
-          <t>CS310 LEC
+      <c r="F6" s="10" t="inlineStr"/>
+      <c r="G6" s="12" t="inlineStr">
+        <is>
+          <t>DS205 LEC
+room no. :C104
+Mr. Manmohan Singh</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="n"/>
+      <c r="I6" s="7" t="n"/>
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L6" s="9" t="inlineStr">
+        <is>
+          <t>CS310 TUT
 room no. :C104
 Dr. Shirshendu &amp; Dr. Utkarsh Khaire</t>
         </is>
       </c>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="7" t="n"/>
-      <c r="I6" s="9" t="inlineStr"/>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L6" s="9" t="inlineStr"/>
-      <c r="M6" s="9" t="inlineStr"/>
-      <c r="N6" s="9" t="inlineStr"/>
-      <c r="O6" s="9" t="inlineStr"/>
-      <c r="P6" s="14" t="inlineStr">
-        <is>
-          <t>MA202 LEC
-room no. :C201
-Dr. Chinmayananda</t>
-        </is>
-      </c>
-      <c r="Q6" s="6" t="n"/>
-      <c r="R6" s="7" t="n"/>
-      <c r="S6" s="14" t="inlineStr">
-        <is>
-          <t>MA202 TUT
-room no. :C102
-Dr. Chinmayananda</t>
-        </is>
-      </c>
-      <c r="T6" s="7" t="n"/>
+      <c r="M6" s="7" t="n"/>
+      <c r="N6" s="10" t="inlineStr"/>
+      <c r="O6" s="15" t="inlineStr">
+        <is>
+          <t>DS204 LEC
+room no. :C104
+Dr. Animesh Chaturvedi</t>
+        </is>
+      </c>
+      <c r="P6" s="6" t="n"/>
+      <c r="Q6" s="7" t="n"/>
+      <c r="R6" s="10" t="inlineStr"/>
+      <c r="S6" s="10" t="inlineStr"/>
+      <c r="T6" s="10" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="20" t="inlineStr">
@@ -9702,23 +9663,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F4:I4"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="M2:O2"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="Q3:S3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9730,7 +9691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9870,10 +9831,9 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>B1 Courses
-B1-CS458, B1-NEW
-B1-CS458: Dr. Krishnendu (L401)
-B1-NEW: Dr. Sunil S (L303)</t>
+          <t>B2 Courses
+B2-NEW
+B2-NEW: Dr. Pavan (L402)</t>
         </is>
       </c>
       <c r="C2" s="6" t="n"/>
@@ -9883,12 +9843,12 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F2" s="9" t="inlineStr"/>
-      <c r="G2" s="13" t="inlineStr">
+      <c r="F2" s="10" t="inlineStr"/>
+      <c r="G2" s="16" t="inlineStr">
         <is>
           <t>B1 Courses
-B1-CS458, B1-NEW
-B1-CS458: Dr. Krishnendu (L401)
+B1-CS464, B1-NEW
+B1-CS464: Dr. Chinmayanand (C205)
 B1-NEW: Dr. Sunil S (L303)</t>
         </is>
       </c>
@@ -9904,30 +9864,30 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L2" s="10" t="inlineStr">
-        <is>
-          <t>DS309 SS
-room no. :C202
-Dr. Animesh Chaturvedi</t>
-        </is>
-      </c>
-      <c r="M2" s="7" t="n"/>
-      <c r="N2" s="14" t="inlineStr">
-        <is>
-          <t>DS307 LEC
-room no. :C202
-Mr. Ram Subramanian</t>
-        </is>
-      </c>
-      <c r="O2" s="6" t="n"/>
+      <c r="L2" s="16" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-CS464, B1-NEW
+B1-CS464: Dr. Chinmayanand (C205)
+B1-NEW: Dr. Sunil S (L303)</t>
+        </is>
+      </c>
+      <c r="M2" s="6" t="n"/>
+      <c r="N2" s="7" t="n"/>
+      <c r="O2" s="13" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-EC361
+B2-EC361: Dr. Jagadeesha R Bhat (L302)</t>
+        </is>
+      </c>
       <c r="P2" s="7" t="n"/>
-      <c r="Q2" s="9" t="inlineStr"/>
-      <c r="R2" s="13" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-CS458, B1-NEW
-B1-CS458: Dr. Krishnendu (L401)
-B1-NEW: Dr. Sunil S (L303)</t>
+      <c r="Q2" s="10" t="inlineStr"/>
+      <c r="R2" s="5" t="inlineStr">
+        <is>
+          <t>DS308 LEC
+room no. :C201
+Dr. Abdul Wahid &amp; Dr. Rajendra Hegadi</t>
         </is>
       </c>
       <c r="S2" s="6" t="n"/>
@@ -9939,11 +9899,11 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="13" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
         <is>
           <t>B1 Courses
 B1-NEW
-B1-NEW: Prof. SRM Prasanna (C205)</t>
+B1-NEW: Dr. Sunil S (L305)</t>
         </is>
       </c>
       <c r="C3" s="6" t="n"/>
@@ -9953,53 +9913,53 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F3" s="11" t="inlineStr">
-        <is>
-          <t>DS308 LEC
-room no. :C202
-Dr. Abdul Wahid &amp; Dr. Rajendra Hegadi</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="7" t="n"/>
-      <c r="I3" s="9" t="inlineStr"/>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="5" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-NEW
-B2-NEW: Dr. Pavan (L305)</t>
-        </is>
-      </c>
-      <c r="M3" s="6" t="n"/>
-      <c r="N3" s="7" t="n"/>
-      <c r="O3" s="9" t="inlineStr"/>
-      <c r="P3" s="12" t="inlineStr">
+      <c r="F3" s="15" t="inlineStr">
         <is>
           <t>DS306 LEC
 room no. :C203
 Dr. Utkarsh Khaire</t>
         </is>
       </c>
-      <c r="Q3" s="6" t="n"/>
-      <c r="R3" s="7" t="n"/>
-      <c r="S3" s="5" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-EC361
-B2-EC361: Dr. Jagadeesha R Bhat (L404)</t>
-        </is>
-      </c>
-      <c r="T3" s="7" t="n"/>
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="7" t="n"/>
+      <c r="I3" s="10" t="inlineStr"/>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="10" t="inlineStr"/>
+      <c r="M3" s="16" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-CS464
+B1-CS464: Dr. Chinmayanand (L302)</t>
+        </is>
+      </c>
+      <c r="N3" s="7" t="n"/>
+      <c r="O3" s="15" t="inlineStr">
+        <is>
+          <t>DS306 LEC
+room no. :C102
+Dr. Utkarsh Khaire</t>
+        </is>
+      </c>
+      <c r="P3" s="6" t="n"/>
+      <c r="Q3" s="7" t="n"/>
+      <c r="R3" s="5" t="inlineStr">
+        <is>
+          <t>DS308 TUT
+room no. :C201
+Dr. Abdul Wahid &amp; Dr. Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="S3" s="7" t="n"/>
+      <c r="T3" s="10" t="inlineStr"/>
     </row>
     <row r="4" ht="40" customHeight="1">
       <c r="A4" t="inlineStr">
@@ -10007,11 +9967,11 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>B2 Courses
-B2-NEW
-B2-NEW: Dr. Pavan (L301)</t>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>DS309 LEC
+room no. :C202
+Dr. Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="C4" s="6" t="n"/>
@@ -10021,75 +9981,67 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F4" s="9" t="inlineStr"/>
-      <c r="G4" s="13" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-CS464, B1-NEW
-B1-CS464: Dr. Chinmayanand (C204)
-B1-NEW: Dr. Sunil S (L302)</t>
-        </is>
-      </c>
-      <c r="H4" s="6" t="n"/>
-      <c r="I4" s="7" t="n"/>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
+      <c r="F4" s="13" t="inlineStr">
         <is>
           <t>B2 Courses
 B2-NEW
-B2-NEW: Dr. Sandesh P (C204)</t>
+B2-NEW: Dr. Pavan (L304)</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="7" t="n"/>
+      <c r="I4" s="10" t="inlineStr"/>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="14" t="inlineStr">
+        <is>
+          <t>DS307 TUT
+room no. :C201
+Mr. Ram Subramanian</t>
         </is>
       </c>
       <c r="M4" s="7" t="n"/>
-      <c r="N4" s="14" t="inlineStr">
-        <is>
-          <t>DS307 TUT
-room no. :C102
-Mr. Ram Subramanian</t>
-        </is>
-      </c>
-      <c r="O4" s="7" t="n"/>
-      <c r="P4" s="13" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-NEW
-B1-NEW: Prof. SRM Prasanna (L403)</t>
-        </is>
-      </c>
-      <c r="Q4" s="7" t="n"/>
-      <c r="R4" s="13" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-CS464, B1-NEW
-B1-CS464: Dr. Chinmayanand (C204)
-B1-NEW: Dr. Sunil S (L302)</t>
-        </is>
-      </c>
-      <c r="S4" s="6" t="n"/>
-      <c r="T4" s="7" t="n"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="N4" s="10" t="inlineStr"/>
+      <c r="O4" s="9" t="inlineStr">
         <is>
           <t>DS309 LEC
 room no. :C203
 Dr. Animesh Chaturvedi</t>
         </is>
       </c>
+      <c r="P4" s="6" t="n"/>
+      <c r="Q4" s="7" t="n"/>
+      <c r="R4" s="10" t="inlineStr"/>
+      <c r="S4" s="9" t="inlineStr">
+        <is>
+          <t>DS309 SS
+room no. :C104
+Dr. Animesh Chaturvedi</t>
+        </is>
+      </c>
+      <c r="T4" s="7" t="n"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="16" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-CS458
+B1-CS458: Dr. Krishnendu (L401)</t>
+        </is>
+      </c>
       <c r="C5" s="6" t="n"/>
       <c r="D5" s="7" t="n"/>
       <c r="E5" s="8" t="inlineStr">
@@ -10097,16 +10049,22 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F5" s="14" t="inlineStr">
-        <is>
-          <t>DS307 LEC
-room no. :C202
-Mr. Ram Subramanian</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="9" t="inlineStr"/>
+      <c r="F5" s="16" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-CS458
+B1-CS458: Dr. Krishnendu (L301)</t>
+        </is>
+      </c>
+      <c r="G5" s="7" t="n"/>
+      <c r="H5" s="13" t="inlineStr">
+        <is>
+          <t>B2 Courses
+B2-NEW
+B2-NEW: Dr. Sandesh P (C205)</t>
+        </is>
+      </c>
+      <c r="I5" s="7" t="n"/>
       <c r="J5" s="8" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -10117,32 +10075,32 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L5" s="13" t="inlineStr">
-        <is>
-          <t>B1 Courses
-B1-NEW
-B1-NEW: Prof. SRM Prasanna (L402)</t>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>DS308 LEC
+room no. :C104
+Dr. Abdul Wahid &amp; Dr. Rajendra Hegadi</t>
         </is>
       </c>
       <c r="M5" s="6" t="n"/>
       <c r="N5" s="7" t="n"/>
-      <c r="O5" s="9" t="inlineStr"/>
-      <c r="P5" s="11" t="inlineStr">
-        <is>
-          <t>DS308 TUT
-room no. :C104
-Dr. Abdul Wahid &amp; Dr. Rajendra Hegadi</t>
-        </is>
-      </c>
-      <c r="Q5" s="7" t="n"/>
-      <c r="R5" s="12" t="inlineStr">
-        <is>
-          <t>DS306 LEC
+      <c r="O5" s="10" t="inlineStr"/>
+      <c r="P5" s="14" t="inlineStr">
+        <is>
+          <t>DS307 LEC
 room no. :C201
+Mr. Ram Subramanian</t>
+        </is>
+      </c>
+      <c r="Q5" s="6" t="n"/>
+      <c r="R5" s="7" t="n"/>
+      <c r="S5" s="15" t="inlineStr">
+        <is>
+          <t>DS306 SS
+room no. :C102
 Dr. Utkarsh Khaire</t>
         </is>
       </c>
-      <c r="S5" s="6" t="n"/>
       <c r="T5" s="7" t="n"/>
     </row>
     <row r="6" ht="40" customHeight="1">
@@ -10151,11 +10109,13 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>DS308 LEC
-room no. :C201
-Dr. Abdul Wahid &amp; Dr. Rajendra Hegadi</t>
+      <c r="B6" s="16" t="inlineStr">
+        <is>
+          <t>B1 Courses
+B1-CS458, B1-CS464, B1-NEW
+B1-CS458: Dr. Krishnendu (L404)
+B1-CS464: Dr. Chinmayanand (C204)
+B1-NEW: Prof. SRM Prasanna (L403)</t>
         </is>
       </c>
       <c r="C6" s="6" t="n"/>
@@ -10165,55 +10125,57 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F6" s="9" t="inlineStr"/>
-      <c r="G6" s="13" t="inlineStr">
+      <c r="F6" s="14" t="inlineStr">
+        <is>
+          <t>DS307 LEC
+room no. :C201
+Mr. Ram Subramanian</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="n"/>
+      <c r="H6" s="7" t="n"/>
+      <c r="I6" s="10" t="inlineStr"/>
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="8" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L6" s="10" t="inlineStr"/>
+      <c r="M6" s="16" t="inlineStr">
         <is>
           <t>B1 Courses
-B1-CS464
-B1-CS464: Dr. Chinmayanand (L404)</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="n"/>
-      <c r="I6" s="7" t="n"/>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K6" s="8" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L6" s="13" t="inlineStr">
+B1-CS458, B1-CS464, B1-NEW
+B1-CS458: Dr. Krishnendu (L404)
+B1-CS464: Dr. Chinmayanand (C204)
+B1-NEW: Prof. SRM Prasanna (L403)</t>
+        </is>
+      </c>
+      <c r="N6" s="6" t="n"/>
+      <c r="O6" s="7" t="n"/>
+      <c r="P6" s="16" t="inlineStr">
         <is>
           <t>B1 Courses
-B1-CS458, B1-CS464
-B1-CS458: Dr. Krishnendu (L403)
-B1-CS464: Dr. Chinmayanand (C205)</t>
-        </is>
-      </c>
-      <c r="M6" s="7" t="n"/>
-      <c r="N6" s="10" t="inlineStr">
-        <is>
-          <t>DS309 LEC
-room no. :C202
-Dr. Animesh Chaturvedi</t>
-        </is>
-      </c>
-      <c r="O6" s="6" t="n"/>
-      <c r="P6" s="7" t="n"/>
-      <c r="Q6" s="9" t="inlineStr"/>
-      <c r="R6" s="13" t="inlineStr">
+B1-NEW
+B1-NEW: Prof. SRM Prasanna (C204)</t>
+        </is>
+      </c>
+      <c r="Q6" s="7" t="n"/>
+      <c r="R6" s="16" t="inlineStr">
         <is>
           <t>B1 Courses
-B1-CS458, B1-CS464
-B1-CS458: Dr. Krishnendu (L403)
-B1-CS464: Dr. Chinmayanand (C205)</t>
-        </is>
-      </c>
-      <c r="S6" s="7" t="n"/>
-      <c r="T6" s="9" t="inlineStr"/>
+B1-CS458, B1-CS464, B1-NEW
+B1-CS458: Dr. Krishnendu (L404)
+B1-CS464: Dr. Chinmayanand (C204)
+B1-NEW: Prof. SRM Prasanna (L403)</t>
+        </is>
+      </c>
+      <c r="S6" s="6" t="n"/>
+      <c r="T6" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -10298,17 +10260,17 @@
     <row r="19">
       <c r="A19" s="19" t="inlineStr">
         <is>
-          <t>B2-NEW</t>
+          <t>B2-EC361</t>
         </is>
       </c>
       <c r="B19" s="19" t="inlineStr">
         <is>
-          <t>Quantum HPC and AI</t>
+          <t>Introduction to 5G Network</t>
         </is>
       </c>
       <c r="C19" s="19" t="inlineStr">
         <is>
-          <t>Dr. Manish M (Dr. Aswath)</t>
+          <t>Dr. Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="D19" s="19" t="inlineStr">
@@ -10321,24 +10283,24 @@
       </c>
       <c r="F19" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="19" t="inlineStr">
         <is>
-          <t>B2-EC361</t>
+          <t>B2-NEW</t>
         </is>
       </c>
       <c r="B20" s="19" t="inlineStr">
         <is>
-          <t>Introduction to 5G Network</t>
+          <t>Quantum HPC and AI</t>
         </is>
       </c>
       <c r="C20" s="19" t="inlineStr">
         <is>
-          <t>Dr. Jagadeesha R Bhat</t>
+          <t>Dr. Manish M (Dr. Aswath)</t>
         </is>
       </c>
       <c r="D20" s="19" t="inlineStr">
@@ -10351,7 +10313,7 @@
       </c>
       <c r="F20" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
         </is>
       </c>
     </row>
@@ -10381,82 +10343,89 @@
       </c>
       <c r="F21" s="19" t="inlineStr">
         <is>
-          <t>Could not find suitable slot</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="20" t="inlineStr">
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="19" t="inlineStr">
+        <is>
+          <t>B1-NEW</t>
+        </is>
+      </c>
+      <c r="B22" s="19" t="inlineStr">
+        <is>
+          <t>Deep Speech Processing</t>
+        </is>
+      </c>
+      <c r="C22" s="19" t="inlineStr">
+        <is>
+          <t>Prof. SRM Prasanna</t>
+        </is>
+      </c>
+      <c r="D22" s="19" t="inlineStr">
+        <is>
+          <t>LEC</t>
+        </is>
+      </c>
+      <c r="E22" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="19" t="inlineStr">
+        <is>
+          <t>No suitable timeslot found after 1000 attempts - heavy scheduling conflicts</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="20" t="inlineStr">
         <is>
           <t>Legend</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="21" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="21" t="inlineStr">
         <is>
           <t>Subject Code</t>
         </is>
       </c>
-      <c r="B26" s="21" t="inlineStr">
+      <c r="B27" s="21" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
       </c>
-      <c r="C26" s="21" t="inlineStr">
+      <c r="C27" s="21" t="inlineStr">
         <is>
           <t>Subject Name</t>
         </is>
       </c>
-      <c r="D26" s="21" t="inlineStr">
+      <c r="D27" s="21" t="inlineStr">
         <is>
           <t>Faculty</t>
         </is>
       </c>
-      <c r="E26" s="21" t="inlineStr">
+      <c r="E27" s="21" t="inlineStr">
         <is>
           <t>LTPS</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="30" customHeight="1">
-      <c r="A27" s="22" t="inlineStr">
-        <is>
-          <t>DS309</t>
-        </is>
-      </c>
-      <c r="B27" s="23" t="inlineStr"/>
-      <c r="C27" s="22" t="inlineStr">
-        <is>
-          <t>Cloud Computing</t>
-        </is>
-      </c>
-      <c r="D27" s="22" t="inlineStr">
-        <is>
-          <t>Dr. Animesh Chaturvedi</t>
-        </is>
-      </c>
-      <c r="E27" s="22" t="inlineStr">
-        <is>
-          <t>3-0-0-4</t>
         </is>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>DS306</t>
-        </is>
-      </c>
-      <c r="B28" s="24" t="inlineStr"/>
+          <t>DS309</t>
+        </is>
+      </c>
+      <c r="B28" s="23" t="inlineStr"/>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Financial Data Analytics</t>
+          <t>Cloud Computing</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
         <is>
-          <t>Dr. Utkarsh Khaire</t>
+          <t>Dr. Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="E28" s="22" t="inlineStr">
@@ -10468,41 +10437,41 @@
     <row r="29" ht="30" customHeight="1">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>DS307</t>
-        </is>
-      </c>
-      <c r="B29" s="25" t="inlineStr"/>
+          <t>DS306</t>
+        </is>
+      </c>
+      <c r="B29" s="24" t="inlineStr"/>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Innovation &amp; Entrepreneurship</t>
+          <t>Financial Data Analytics</t>
         </is>
       </c>
       <c r="D29" s="22" t="inlineStr">
         <is>
-          <t>Mr. Ram Subramanian</t>
+          <t>Dr. Utkarsh Khaire</t>
         </is>
       </c>
       <c r="E29" s="22" t="inlineStr">
         <is>
-          <t>3-1-0-0</t>
+          <t>3-0-0-4</t>
         </is>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>DS308</t>
-        </is>
-      </c>
-      <c r="B30" s="26" t="inlineStr"/>
+          <t>DS307</t>
+        </is>
+      </c>
+      <c r="B30" s="25" t="inlineStr"/>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Data Security &amp; Privacy</t>
+          <t>Innovation &amp; Entrepreneurship</t>
         </is>
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t>Dr. Abdul Wahid &amp; Dr. Rajendra Hegadi</t>
+          <t>Mr. Ram Subramanian</t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
@@ -10514,18 +10483,18 @@
     <row r="31" ht="30" customHeight="1">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>B1-CS464</t>
-        </is>
-      </c>
-      <c r="B31" s="29" t="inlineStr"/>
+          <t>DS308</t>
+        </is>
+      </c>
+      <c r="B31" s="26" t="inlineStr"/>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Deep Learning for Computer Vision</t>
+          <t>Data Security &amp; Privacy</t>
         </is>
       </c>
       <c r="D31" s="22" t="inlineStr">
         <is>
-          <t>Dr. Chinmayanand</t>
+          <t>Dr. Abdul Wahid &amp; Dr. Rajendra Hegadi</t>
         </is>
       </c>
       <c r="E31" s="22" t="inlineStr">
@@ -10537,87 +10506,87 @@
     <row r="32" ht="30" customHeight="1">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>B1-NEW</t>
+          <t>B1-CS464</t>
         </is>
       </c>
       <c r="B32" s="29" t="inlineStr"/>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Large Language Models</t>
+          <t>Deep Learning for Computer Vision</t>
         </is>
       </c>
       <c r="D32" s="22" t="inlineStr">
         <is>
-          <t>Dr. Sunil S</t>
+          <t>Dr. Chinmayanand</t>
         </is>
       </c>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>3-0-0-4</t>
+          <t>3-1-0-0</t>
         </is>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>B1-CS458</t>
+          <t>B1-NEW</t>
         </is>
       </c>
       <c r="B33" s="29" t="inlineStr"/>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Natural Language Processing</t>
+          <t>Large Language Models</t>
         </is>
       </c>
       <c r="D33" s="22" t="inlineStr">
         <is>
-          <t>Dr. Krishnendu</t>
+          <t>Dr. Sunil S</t>
         </is>
       </c>
       <c r="E33" s="22" t="inlineStr">
         <is>
-          <t>3-1-0-0</t>
+          <t>3-0-0-4</t>
         </is>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>B2-NEW</t>
-        </is>
-      </c>
-      <c r="B34" s="30" t="inlineStr"/>
+          <t>B1-CS458</t>
+        </is>
+      </c>
+      <c r="B34" s="29" t="inlineStr"/>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Model Checking</t>
+          <t>Natural Language Processing</t>
         </is>
       </c>
       <c r="D34" s="22" t="inlineStr">
         <is>
-          <t>Dr. Pavan</t>
+          <t>Dr. Krishnendu</t>
         </is>
       </c>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>3-0-0-4</t>
+          <t>3-1-0-0</t>
         </is>
       </c>
     </row>
     <row r="35" ht="30" customHeight="1">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>B2-CS455</t>
+          <t>B2-NEW</t>
         </is>
       </c>
       <c r="B35" s="30" t="inlineStr"/>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Blockchain Technology</t>
+          <t>Model Checking</t>
         </is>
       </c>
       <c r="D35" s="22" t="inlineStr">
         <is>
-          <t>Dr. Rajendra H</t>
+          <t>Dr. Pavan</t>
         </is>
       </c>
       <c r="E35" s="22" t="inlineStr">
@@ -10629,44 +10598,67 @@
     <row r="36" ht="30" customHeight="1">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>B2-EC361</t>
+          <t>B2-CS455</t>
         </is>
       </c>
       <c r="B36" s="30" t="inlineStr"/>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Introduction to 5G Network</t>
+          <t>Blockchain Technology</t>
         </is>
       </c>
       <c r="D36" s="22" t="inlineStr">
         <is>
-          <t>Dr. Jagadeesha R Bhat</t>
+          <t>Dr. Rajendra H</t>
         </is>
       </c>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>3-1-0-0</t>
+          <t>3-0-0-4</t>
         </is>
       </c>
     </row>
     <row r="37" ht="30" customHeight="1">
       <c r="A37" s="22" t="inlineStr">
         <is>
+          <t>B2-EC361</t>
+        </is>
+      </c>
+      <c r="B37" s="30" t="inlineStr"/>
+      <c r="C37" s="22" t="inlineStr">
+        <is>
+          <t>Introduction to 5G Network</t>
+        </is>
+      </c>
+      <c r="D37" s="22" t="inlineStr">
+        <is>
+          <t>Dr. Jagadeesha R Bhat</t>
+        </is>
+      </c>
+      <c r="E37" s="22" t="inlineStr">
+        <is>
+          <t>3-1-0-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="30" customHeight="1">
+      <c r="A38" s="22" t="inlineStr">
+        <is>
           <t>DS399</t>
         </is>
       </c>
-      <c r="B37" s="41" t="inlineStr"/>
-      <c r="C37" s="22" t="inlineStr">
+      <c r="B38" s="41" t="inlineStr"/>
+      <c r="C38" s="22" t="inlineStr">
         <is>
           <t>Mini Project-I</t>
         </is>
       </c>
-      <c r="D37" s="22" t="inlineStr">
+      <c r="D38" s="22" t="inlineStr">
         <is>
           <t>Coordinator: Dr. Shirshendu</t>
         </is>
       </c>
-      <c r="E37" s="22" t="inlineStr">
+      <c r="E38" s="22" t="inlineStr">
         <is>
           <t>0-0-0-8</t>
         </is>
@@ -10674,32 +10666,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="L5:N5"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="N6:P6"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="R2:T2"/>
-    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="P5:R5"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="G2:I2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="S4:T4"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="R6:T6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
